--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\07.Committee\ITAKONA\FY2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1E8C04F-F43F-4CCE-934B-59692F328607}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{8301557F-63BD-4A4E-A538-F9A30919E626}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -28,6 +27,20 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
+    <definedName name="_xlchart.0" hidden="1">P3_1!$A$84</definedName>
+    <definedName name="_xlchart.1" hidden="1">P3_1!$A$85</definedName>
+    <definedName name="_xlchart.10" hidden="1">P3_1!$B$83:$F$83</definedName>
+    <definedName name="_xlchart.11" hidden="1">P3_1!$B$84:$F$84</definedName>
+    <definedName name="_xlchart.12" hidden="1">P3_1!$B$85:$F$85</definedName>
+    <definedName name="_xlchart.13" hidden="1">P3_1!$B$86:$F$86</definedName>
+    <definedName name="_xlchart.2" hidden="1">P3_1!$A$86</definedName>
+    <definedName name="_xlchart.3" hidden="1">P3_1!$B$83:$F$83</definedName>
+    <definedName name="_xlchart.4" hidden="1">P3_1!$B$84:$F$84</definedName>
+    <definedName name="_xlchart.5" hidden="1">P3_1!$B$85:$F$85</definedName>
+    <definedName name="_xlchart.6" hidden="1">P3_1!$B$86:$F$86</definedName>
+    <definedName name="_xlchart.7" hidden="1">P3_1!$A$84</definedName>
+    <definedName name="_xlchart.8" hidden="1">P3_1!$A$85</definedName>
+    <definedName name="_xlchart.9" hidden="1">P3_1!$A$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -35,7 +48,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="202">
   <si>
     <t>Apr</t>
   </si>
@@ -673,15 +686,21 @@
   <si>
     <t>ISG PROGRESS ACTIVITY SUMMARY FY2021</t>
   </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="38">
@@ -1623,7 +1642,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1652,14 +1671,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1667,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1685,24 +1704,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1753,10 +1772,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,10 +1784,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1778,8 +1797,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1796,7 +1815,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1854,7 +1873,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1878,13 +1897,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,111 +1918,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2040,22 +1975,106 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="34" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2259,6 +2278,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2512,6 +2532,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2570,7 +2591,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2660,6 +2683,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2718,7 +2742,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2802,6 +2828,691 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>FY2023 Projects</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Summary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>	</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>P3_1!$B$83:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$B$84:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4720-4C88-A9E7-55434421303D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>P3_1!$B$83:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$B$85:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4720-4C88-A9E7-55434421303D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>P3_1!$B$83:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$B$86:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4720-4C88-A9E7-55434421303D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="323428975"/>
+        <c:axId val="323422319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="323428975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323422319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="323422319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323428975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2860,7 +3571,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2919,162 +3632,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3114,6 +3672,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3136,11 +3695,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3172,12 +3731,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3194,25 +3755,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3231,6 +3792,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3270,6 +3832,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3292,11 +3855,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3328,12 +3891,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3350,25 +3915,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3387,6 +3952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3426,6 +3992,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3448,11 +4015,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3484,12 +4051,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3506,25 +4075,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3543,6 +4112,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3582,6 +4152,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3604,11 +4175,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3640,12 +4211,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3662,25 +4235,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3699,6 +4272,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3738,6 +4312,167 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3795,7 +4530,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3863,206 +4600,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.2127867987793395E-2"/>
-                  <c:y val="0.10385999854241595"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4F2B-4C3A-B1FE-03B2477B167B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4386216077057354E-2"/>
-                  <c:y val="1.3680904272912707E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-4F2B-4C3A-B1FE-03B2477B167B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$29:$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$30:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F2B-4C3A-B1FE-03B2477B167B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4078,6 +4615,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4167,7 +4705,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4280,6 +4820,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4302,16 +4843,64 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$32</c:f>
+              <c:f>'Ita-Kona'!$J$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member8</c:v>
+                  <c:v>Member7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2127867987793395E-2"/>
+                  <c:y val="0.10385999854241595"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4F2B-4C3A-B1FE-03B2477B167B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4386216077057354E-2"/>
+                  <c:y val="1.3680904272912707E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4F2B-4C3A-B1FE-03B2477B167B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4338,12 +4927,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$31:$M$31</c:f>
+              <c:f>'Ita-Kona'!$K$29:$M$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4360,25 +4951,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$32:$M$32</c:f>
+              <c:f>'Ita-Kona'!$K$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC13-4968-8490-A87D6AC491AB}"/>
+              <c16:uniqueId val="{00000002-4F2B-4C3A-B1FE-03B2477B167B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4397,6 +4988,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4436,6 +5028,167 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC13-4968-8490-A87D6AC491AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4503,7 +5256,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4571,7 +5326,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4819,7 +5574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5016,7 +5771,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5257,7 +6012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5643,7 +6398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5837,7 +6592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6277,7 +7032,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6598,7 +7353,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7801,253 +8802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8531,7 +9286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8674,7 +9429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8811,7 +9566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8826,6 +9581,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9058,7 +9814,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9073,6 +9829,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9151,7 +9908,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -9254,7 +10013,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9494,7 +10253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9509,6 +10268,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9644,7 +10404,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -9666,7 +10428,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -9879,7 +10643,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9894,6 +10658,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9931,7 +10696,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -9953,7 +10720,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -9991,7 +10760,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -10072,7 +10843,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10087,6 +10858,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10511,7 +11283,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10526,6 +11298,355 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19962109281794321"/>
+                  <c:y val="3.5097009168245437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10460333077888202"/>
+                  <c:y val="0.1375199581552915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28920283357419752"/>
+                      <c:h val="0.21320120932345346"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10647,6 +11768,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -10655,7 +11777,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -10663,6 +11787,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -10671,7 +11796,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -10679,6 +11806,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -10687,7 +11815,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -10831,350 +11961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19962109281794321"/>
-                  <c:y val="3.5097009168245437E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10460333077888202"/>
-                  <c:y val="0.1375199581552915"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.28920283357419752"/>
-                      <c:h val="0.21320120932345346"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11214,6 +12001,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11322,6 +12110,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11473,6 +12262,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11624,6 +12414,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11775,6 +12566,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11876,6 +12668,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12314,6 +13107,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12377,7 +13171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12861,7 +13655,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12876,6 +13670,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -12923,7 +13718,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -13003,7 +13800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13018,6 +13815,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13065,7 +13863,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -13154,6 +13954,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13202,7 +14003,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -13224,7 +14027,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -13262,7 +14067,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -13353,6 +14160,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13798,6 +14606,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13930,6 +14739,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -13938,7 +14748,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-34E5-4465-AD3C-6763C90A9822}"/>
                 </c:ext>
@@ -13946,6 +14758,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -13954,7 +14767,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-34E5-4465-AD3C-6763C90A9822}"/>
                 </c:ext>
@@ -13962,6 +14777,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -13970,7 +14786,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-34E5-4465-AD3C-6763C90A9822}"/>
                 </c:ext>
@@ -14149,6 +14967,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14257,6 +15076,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14408,6 +15228,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14559,6 +15380,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14710,6 +15532,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14811,6 +15634,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15417,6 +16241,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15962,6 +16787,540 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16379,6 +17738,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18103,18 +19492,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3130E54B-E06E-4D12-BACD-D8D6341EB78B}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E69F77F-E198-4DE1-8C29-DBBC2867F9E6}" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A344FE6C-E582-42A7-9258-52EDA6D0A316}" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C265358B-C3EE-42BD-81C4-3ADF1241DDA5}" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DA187BF8-73C6-40CA-B6B0-311E04FABA72}" name="Develop" dataDxfId="3">
+    <tableColumn id="1" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22A3170F-69B7-487F-8A4C-3120235EF077}" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{2972FB38-F5A6-40FC-965A-1F5D47735175}" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{92024B44-5CCA-4882-9090-A69D636FD0EF}" name="Column1" dataDxfId="0">
+    <tableColumn id="5" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18418,23 +19807,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929AAAC9-C475-4023-A479-10822EDD5E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="68" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="68" customWidth="1"/>
-    <col min="4" max="4" width="39" style="68" customWidth="1"/>
-    <col min="5" max="5" width="54" style="68" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="68" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="68" customWidth="1"/>
     <col min="7" max="8" width="16.42578125" style="68" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.42578125" style="68" customWidth="1"/>
@@ -18442,17 +19831,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -19338,6 +20727,83 @@
       </c>
       <c r="M79" s="48">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="68">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="68">
+        <v>2020</v>
+      </c>
+      <c r="D83" s="68">
+        <v>2021</v>
+      </c>
+      <c r="E83" s="68">
+        <v>2022</v>
+      </c>
+      <c r="F83" s="68">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="68">
+        <v>81</v>
+      </c>
+      <c r="C84" s="68">
+        <v>68</v>
+      </c>
+      <c r="D84" s="68">
+        <v>84</v>
+      </c>
+      <c r="E84" s="68">
+        <v>69</v>
+      </c>
+      <c r="F84" s="68">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="68">
+        <v>20</v>
+      </c>
+      <c r="C85" s="68">
+        <v>14</v>
+      </c>
+      <c r="D85" s="68">
+        <v>13</v>
+      </c>
+      <c r="E85" s="68">
+        <v>16</v>
+      </c>
+      <c r="F85" s="68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="68">
+        <v>24</v>
+      </c>
+      <c r="C86" s="68">
+        <v>26</v>
+      </c>
+      <c r="D86" s="68">
+        <v>16</v>
+      </c>
+      <c r="E86" s="68">
+        <v>8</v>
+      </c>
+      <c r="F86" s="68">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -19492,11 +20958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940968A2-F352-4998-8263-FDA602600DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
@@ -19517,15 +20983,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
@@ -19546,24 +21012,24 @@
       <c r="A2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="90" t="s">
@@ -20371,7 +21837,163 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{B061A45E-1B47-4B82-8F96-3422432252D7}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+          <x14:colorSeries theme="8"/>
+          <x14:colorNegative theme="9"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
+          <x14:colorLast theme="8" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
+          <x14:colorLow theme="8" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -20423,162 +22045,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9070F81D-721B-4D9F-AAE8-5861609B177C}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>O5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>O6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>O7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>O9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>O10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>O11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>O12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>O13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{8ACC720C-04F3-4D34-9FB7-819DD6B68708}">
-          <x14:colorSeries theme="8"/>
-          <x14:colorNegative theme="9"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
-          <x14:colorLast theme="8" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
-          <x14:colorLow theme="8" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{79B22758-89E9-48EB-9F85-00A8658E98A8}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{D14616DD-EC44-4264-B2B8-0FD8F0408507}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{444C92BC-D456-42C2-96FD-C7A6D4288CFC}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -20586,7 +22052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EFB010-1CE2-4918-9477-20C2B1257DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20610,17 +22076,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -21888,13 +23354,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CD13C-7E4D-4148-BA29-946FA50EB6B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B49" sqref="B49:B54"/>
     </sheetView>
   </sheetViews>
@@ -21911,17 +23377,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -22972,7 +24438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67202E5-0676-4E49-BBC7-A60576DFC664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22985,11 +24451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
     </row>
     <row r="2" spans="1:3" s="68" customFormat="1" ht="18.75">
       <c r="A2" s="80" t="s">
@@ -23050,17 +24516,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C773C9B1-1293-41AC-B796-87A4A7394E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" style="53" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
@@ -23074,29 +24540,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="187" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -23138,7 +24604,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="188" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -23188,7 +24654,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="173"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -23218,7 +24684,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="190" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -23270,7 +24736,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="174"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -23303,29 +24769,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="171"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -23379,10 +24845,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="159"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -23423,10 +24889,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="166"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -23449,8 +24915,8 @@
       <c r="N11" s="138"/>
       <c r="O11" s="87"/>
     </row>
-    <row r="12" spans="1:27" ht="29.25">
-      <c r="A12" s="167" t="s">
+    <row r="12" spans="1:27" ht="26.25">
+      <c r="A12" s="195" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -23495,8 +24961,8 @@
         <v>49.36</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="29.25">
-      <c r="A13" s="167"/>
+    <row r="13" spans="1:27" ht="26.25">
+      <c r="A13" s="195"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -23526,7 +24992,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="29.25">
+    <row r="14" spans="1:27" ht="26.25">
       <c r="A14" s="64"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -23543,139 +25009,139 @@
       <c r="N14" s="66"/>
       <c r="O14" s="67"/>
     </row>
-    <row r="15" spans="1:27" ht="51.75" hidden="1" thickBot="1">
-      <c r="A15" s="168" t="s">
+    <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
+      <c r="A15" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160">
+      <c r="B17" s="193"/>
+      <c r="C17" s="197">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="159"/>
-      <c r="C18" s="161">
+      <c r="B18" s="193"/>
+      <c r="C18" s="198">
         <v>16.3</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164">
+      <c r="B19" s="200"/>
+      <c r="C19" s="201">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -23684,18 +25150,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450E14E1-2368-4164-9E2B-19FB30138430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" style="53" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
@@ -23705,29 +25171,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -23769,7 +25235,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="188" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -23819,7 +25285,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="173"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -23845,7 +25311,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="203" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -23888,7 +25354,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="179"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -23913,29 +25379,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="171"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -23977,10 +25443,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="159"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -23996,10 +25462,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="166"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -24014,8 +25480,8 @@
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
     </row>
-    <row r="12" spans="1:22" ht="29.25">
-      <c r="A12" s="176" t="s">
+    <row r="12" spans="1:22" ht="26.25">
+      <c r="A12" s="205" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -24063,8 +25529,8 @@
         <v>115.78999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30" thickBot="1">
-      <c r="A13" s="177"/>
+    <row r="13" spans="1:22" ht="27" thickBot="1">
+      <c r="A13" s="206"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -24085,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="29.25">
+    <row r="14" spans="1:22" ht="26.25">
       <c r="A14" s="64"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -24102,139 +25568,139 @@
       <c r="N14" s="66"/>
       <c r="O14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="51" hidden="1">
-      <c r="A15" s="168" t="s">
+    <row r="15" spans="1:22" ht="45" hidden="1">
+      <c r="A15" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160">
+      <c r="B17" s="193"/>
+      <c r="C17" s="197">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="159"/>
-      <c r="C18" s="161">
+      <c r="B18" s="193"/>
+      <c r="C18" s="198">
         <v>16.3</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164">
+      <c r="B19" s="200"/>
+      <c r="C19" s="201">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -24242,14 +25708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F760CB96-0C69-40AC-A691-58A33D9397E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
@@ -24257,881 +25723,881 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="189" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="133.28515625" style="188" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="188" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="204" customWidth="1"/>
-    <col min="5" max="5" width="25" style="188" customWidth="1"/>
-    <col min="6" max="6" width="54" style="188" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="188" customWidth="1"/>
-    <col min="8" max="8" width="19" style="188" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="188" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="52.85546875" style="188" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="188"/>
-    <col min="16" max="16" width="18.28515625" style="188" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="188"/>
+    <col min="1" max="1" width="12.85546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.28515625" style="160" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="160" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="176" customWidth="1"/>
+    <col min="5" max="5" width="25" style="160" customWidth="1"/>
+    <col min="6" max="6" width="54" style="160" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="160" customWidth="1"/>
+    <col min="8" max="8" width="19" style="160" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="160" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="52.85546875" style="160" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="160"/>
+    <col min="16" max="16" width="18.28515625" style="160" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="160"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1">
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
     </row>
     <row r="3" spans="1:21" ht="40.5">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="177" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="191" t="s">
+      <c r="E3" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="191" t="s">
+      <c r="F3" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="191" t="s">
+      <c r="G3" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="194" t="s">
+      <c r="J3" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A4" s="195">
+      <c r="A4" s="167">
         <v>1</v>
       </c>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="197" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="198">
+      <c r="F4" s="170">
         <v>0.1</v>
       </c>
-      <c r="G4" s="199">
+      <c r="G4" s="171">
         <v>44287</v>
       </c>
-      <c r="H4" s="199">
+      <c r="H4" s="171">
         <v>44348</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="172"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A5" s="195">
+      <c r="A5" s="167">
         <v>2</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="197" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199">
+      <c r="F5" s="170"/>
+      <c r="G5" s="171">
         <v>44317</v>
       </c>
-      <c r="H5" s="199">
+      <c r="H5" s="171">
         <v>44348</v>
       </c>
-      <c r="I5" s="199"/>
-      <c r="J5" s="200"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A6" s="195">
+      <c r="A6" s="167">
         <v>3</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="197" t="s">
+      <c r="C6" s="175"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199">
+      <c r="F6" s="170"/>
+      <c r="G6" s="171">
         <v>44317</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="171">
         <v>44378</v>
       </c>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A7" s="195">
+      <c r="A7" s="167">
         <v>4</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="203">
+      <c r="C7" s="175">
         <v>21.44</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="197" t="s">
+      <c r="D7" s="178"/>
+      <c r="E7" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="199">
+      <c r="F7" s="170"/>
+      <c r="G7" s="171">
         <v>44378</v>
       </c>
-      <c r="H7" s="199">
+      <c r="H7" s="171">
         <v>44531</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A8" s="195">
+      <c r="A8" s="167">
         <v>5</v>
       </c>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="168" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="206">
+      <c r="C8" s="175"/>
+      <c r="D8" s="178">
         <v>2</v>
       </c>
-      <c r="E8" s="197" t="s">
+      <c r="E8" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="198"/>
-      <c r="G8" s="199">
+      <c r="F8" s="170"/>
+      <c r="G8" s="171">
         <v>44378</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="171">
         <v>44531</v>
       </c>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A9" s="195">
+      <c r="A9" s="167">
         <v>6</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="203"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="197" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="198"/>
-      <c r="G9" s="199">
+      <c r="F9" s="170"/>
+      <c r="G9" s="171">
         <v>44317</v>
       </c>
-      <c r="H9" s="199">
+      <c r="H9" s="171">
         <v>44378</v>
       </c>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A10" s="195">
+      <c r="A10" s="167">
         <v>7</v>
       </c>
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="203">
+      <c r="C10" s="175">
         <v>1.98</v>
       </c>
-      <c r="D10" s="206">
+      <c r="D10" s="178">
         <v>2</v>
       </c>
-      <c r="E10" s="197" t="s">
+      <c r="E10" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="198"/>
-      <c r="G10" s="199">
+      <c r="F10" s="170"/>
+      <c r="G10" s="171">
         <v>44501</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="171">
         <v>44593</v>
       </c>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A11" s="195">
+      <c r="A11" s="167">
         <v>8</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="203">
+      <c r="C11" s="175">
         <v>5</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="197" t="s">
+      <c r="D11" s="178"/>
+      <c r="E11" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="199">
+      <c r="F11" s="170"/>
+      <c r="G11" s="171">
         <v>44501</v>
       </c>
-      <c r="H11" s="199">
+      <c r="H11" s="171">
         <v>44593</v>
       </c>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A12" s="195">
+      <c r="A12" s="167">
         <v>9</v>
       </c>
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="203">
+      <c r="C12" s="175">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D12" s="206"/>
-      <c r="E12" s="197" t="s">
+      <c r="D12" s="178"/>
+      <c r="E12" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="199">
+      <c r="F12" s="170"/>
+      <c r="G12" s="171">
         <v>44562</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="171">
         <v>44621</v>
       </c>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A13" s="195">
+      <c r="A13" s="167">
         <v>10</v>
       </c>
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="203">
+      <c r="C13" s="175">
         <v>1.2050000000000001</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="197" t="s">
+      <c r="D13" s="178"/>
+      <c r="E13" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="198"/>
-      <c r="G13" s="199">
+      <c r="F13" s="170"/>
+      <c r="G13" s="171">
         <v>44531</v>
       </c>
-      <c r="H13" s="199">
+      <c r="H13" s="171">
         <v>44621</v>
       </c>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="172"/>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A14" s="195">
+      <c r="A14" s="167">
         <v>11</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="203">
+      <c r="C14" s="175">
         <v>0.66924000000000006</v>
       </c>
-      <c r="D14" s="206"/>
-      <c r="E14" s="197" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="198"/>
-      <c r="G14" s="199">
+      <c r="F14" s="170"/>
+      <c r="G14" s="171">
         <v>44348</v>
       </c>
-      <c r="H14" s="199">
+      <c r="H14" s="171">
         <v>44409</v>
       </c>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="172"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A15" s="195">
+      <c r="A15" s="167">
         <v>12</v>
       </c>
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="203">
+      <c r="C15" s="175">
         <v>0.50700000000000001</v>
       </c>
-      <c r="D15" s="206"/>
-      <c r="E15" s="197" t="s">
+      <c r="D15" s="178"/>
+      <c r="E15" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="198"/>
-      <c r="G15" s="199">
+      <c r="F15" s="170"/>
+      <c r="G15" s="171">
         <v>44470</v>
       </c>
-      <c r="H15" s="199">
+      <c r="H15" s="171">
         <v>44501</v>
       </c>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A16" s="195">
+      <c r="A16" s="167">
         <v>13</v>
       </c>
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="203">
+      <c r="C16" s="175">
         <v>0.3654</v>
       </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="197" t="s">
+      <c r="D16" s="178"/>
+      <c r="E16" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="198"/>
-      <c r="G16" s="199">
+      <c r="F16" s="170"/>
+      <c r="G16" s="171">
         <v>44531</v>
       </c>
-      <c r="H16" s="199">
+      <c r="H16" s="171">
         <v>44593</v>
       </c>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A17" s="195">
+      <c r="A17" s="167">
         <v>14</v>
       </c>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="203">
+      <c r="C17" s="175">
         <v>0.56784000000000001</v>
       </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="197" t="s">
+      <c r="D17" s="178"/>
+      <c r="E17" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="198"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A18" s="195">
+      <c r="A18" s="167">
         <v>15</v>
       </c>
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="203">
+      <c r="C18" s="175">
         <v>0.16224</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="197" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="198"/>
-      <c r="G18" s="199">
+      <c r="F18" s="170"/>
+      <c r="G18" s="171">
         <v>44593</v>
       </c>
-      <c r="H18" s="199">
+      <c r="H18" s="171">
         <v>44256</v>
       </c>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A19" s="195">
+      <c r="A19" s="167">
         <v>16</v>
       </c>
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="168" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="203">
+      <c r="C19" s="175">
         <v>0.15209999999999999</v>
       </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="197" t="s">
+      <c r="D19" s="178"/>
+      <c r="E19" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199">
+      <c r="F19" s="170"/>
+      <c r="G19" s="171">
         <v>44593</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="171">
         <v>44256</v>
       </c>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A20" s="195">
+      <c r="A20" s="167">
         <v>17</v>
       </c>
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="203">
+      <c r="C20" s="175">
         <v>0.12168000000000001</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="E20" s="197" t="s">
+      <c r="D20" s="178"/>
+      <c r="E20" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="198"/>
-      <c r="G20" s="199">
+      <c r="F20" s="170"/>
+      <c r="G20" s="171">
         <v>44501</v>
       </c>
-      <c r="H20" s="199">
+      <c r="H20" s="171">
         <v>44562</v>
       </c>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A21" s="195">
+      <c r="A21" s="167">
         <v>18</v>
       </c>
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="203">
+      <c r="C21" s="175">
         <v>0.1014</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="197" t="s">
+      <c r="D21" s="178"/>
+      <c r="E21" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="198"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A22" s="195">
+      <c r="A22" s="167">
         <v>19</v>
       </c>
-      <c r="B22" s="196" t="s">
+      <c r="B22" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="203">
+      <c r="C22" s="175">
         <v>0</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="197" t="s">
+      <c r="D22" s="178"/>
+      <c r="E22" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="198"/>
-      <c r="G22" s="199">
+      <c r="F22" s="170"/>
+      <c r="G22" s="171">
         <v>44013</v>
       </c>
-      <c r="H22" s="199">
+      <c r="H22" s="171">
         <v>44075</v>
       </c>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A23" s="195">
+      <c r="A23" s="167">
         <v>20</v>
       </c>
-      <c r="B23" s="196" t="s">
+      <c r="B23" s="168" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="203">
+      <c r="C23" s="175">
         <v>0</v>
       </c>
-      <c r="D23" s="206">
+      <c r="D23" s="178">
         <v>3</v>
       </c>
-      <c r="E23" s="197" t="s">
+      <c r="E23" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="198"/>
-      <c r="G23" s="199">
+      <c r="F23" s="170"/>
+      <c r="G23" s="171">
         <v>43922</v>
       </c>
-      <c r="H23" s="199">
+      <c r="H23" s="171">
         <v>43983</v>
       </c>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A24" s="195">
+      <c r="A24" s="167">
         <v>21</v>
       </c>
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="203">
+      <c r="C24" s="175">
         <v>0.73199999999999998</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="197" t="s">
+      <c r="D24" s="178"/>
+      <c r="E24" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="198"/>
-      <c r="G24" s="199">
+      <c r="F24" s="170"/>
+      <c r="G24" s="171">
         <v>43922</v>
       </c>
-      <c r="H24" s="199">
+      <c r="H24" s="171">
         <v>43983</v>
       </c>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A25" s="195">
+      <c r="A25" s="167">
         <v>22</v>
       </c>
-      <c r="B25" s="196" t="s">
+      <c r="B25" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="203">
+      <c r="C25" s="175">
         <v>0.12</v>
       </c>
-      <c r="D25" s="206"/>
-      <c r="E25" s="197" t="s">
+      <c r="D25" s="178"/>
+      <c r="E25" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="198"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A26" s="195">
+      <c r="A26" s="167">
         <v>23</v>
       </c>
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="203">
+      <c r="C26" s="175">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D26" s="206"/>
-      <c r="E26" s="197" t="s">
+      <c r="D26" s="178"/>
+      <c r="E26" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="198"/>
-      <c r="G26" s="199">
+      <c r="F26" s="170"/>
+      <c r="G26" s="171">
         <v>44317</v>
       </c>
-      <c r="H26" s="199">
+      <c r="H26" s="171">
         <v>44317</v>
       </c>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A27" s="195">
+      <c r="A27" s="167">
         <v>24</v>
       </c>
-      <c r="B27" s="196" t="s">
+      <c r="B27" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="203">
+      <c r="C27" s="175">
         <v>4.5</v>
       </c>
-      <c r="D27" s="206"/>
-      <c r="E27" s="197" t="s">
+      <c r="D27" s="178"/>
+      <c r="E27" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199">
+      <c r="F27" s="170"/>
+      <c r="G27" s="171">
         <v>44378</v>
       </c>
-      <c r="H27" s="199">
+      <c r="H27" s="171">
         <v>44440</v>
       </c>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A28" s="195">
+      <c r="A28" s="167">
         <v>25</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="203">
+      <c r="C28" s="175">
         <v>0</v>
       </c>
-      <c r="D28" s="206"/>
-      <c r="E28" s="197" t="s">
+      <c r="D28" s="178"/>
+      <c r="E28" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="199">
+      <c r="F28" s="170"/>
+      <c r="G28" s="171">
         <v>44136</v>
       </c>
-      <c r="H28" s="199">
+      <c r="H28" s="171">
         <v>44197</v>
       </c>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A29" s="195">
+      <c r="A29" s="167">
         <v>26</v>
       </c>
-      <c r="B29" s="196" t="s">
+      <c r="B29" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="203">
+      <c r="C29" s="175">
         <v>0</v>
       </c>
-      <c r="D29" s="206"/>
-      <c r="E29" s="197" t="s">
+      <c r="D29" s="178"/>
+      <c r="E29" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="199">
+      <c r="F29" s="170"/>
+      <c r="G29" s="171">
         <v>44105</v>
       </c>
-      <c r="H29" s="199">
+      <c r="H29" s="171">
         <v>44136</v>
       </c>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="172"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A30" s="195">
+      <c r="A30" s="167">
         <v>27</v>
       </c>
-      <c r="B30" s="196" t="s">
+      <c r="B30" s="168" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="203">
+      <c r="C30" s="175">
         <v>0</v>
       </c>
-      <c r="D30" s="206"/>
-      <c r="E30" s="197" t="s">
+      <c r="D30" s="178"/>
+      <c r="E30" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="198"/>
-      <c r="G30" s="199">
+      <c r="F30" s="170"/>
+      <c r="G30" s="171">
         <v>44166</v>
       </c>
-      <c r="H30" s="199">
+      <c r="H30" s="171">
         <v>44197</v>
       </c>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A31" s="195">
+      <c r="A31" s="167">
         <v>28</v>
       </c>
-      <c r="B31" s="196" t="s">
+      <c r="B31" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="203">
+      <c r="C31" s="175">
         <v>14</v>
       </c>
-      <c r="D31" s="206"/>
-      <c r="E31" s="197" t="s">
+      <c r="D31" s="178"/>
+      <c r="E31" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="198"/>
-      <c r="G31" s="199">
+      <c r="F31" s="170"/>
+      <c r="G31" s="171">
         <v>43922</v>
       </c>
-      <c r="H31" s="199">
+      <c r="H31" s="171">
         <v>43983</v>
       </c>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A32" s="195">
+      <c r="A32" s="167">
         <v>29</v>
       </c>
-      <c r="B32" s="196" t="s">
+      <c r="B32" s="168" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="203">
+      <c r="C32" s="175">
         <v>0.41574</v>
       </c>
-      <c r="D32" s="206"/>
-      <c r="E32" s="197" t="s">
+      <c r="D32" s="178"/>
+      <c r="E32" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="198"/>
-      <c r="G32" s="199">
+      <c r="F32" s="170"/>
+      <c r="G32" s="171">
         <v>44075</v>
       </c>
-      <c r="H32" s="199">
+      <c r="H32" s="171">
         <v>44105</v>
       </c>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="172"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A33" s="195">
+      <c r="A33" s="167">
         <v>30</v>
       </c>
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="168" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="203">
+      <c r="C33" s="175">
         <v>0</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="197" t="s">
+      <c r="D33" s="178"/>
+      <c r="E33" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="198"/>
-      <c r="G33" s="199">
+      <c r="F33" s="170"/>
+      <c r="G33" s="171">
         <v>43922</v>
       </c>
-      <c r="H33" s="199">
+      <c r="H33" s="171">
         <v>44256</v>
       </c>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A34" s="195">
+      <c r="A34" s="167">
         <v>31</v>
       </c>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="203">
+      <c r="C34" s="175">
         <v>0</v>
       </c>
-      <c r="D34" s="206"/>
-      <c r="E34" s="197" t="s">
+      <c r="D34" s="178"/>
+      <c r="E34" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="172"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A35" s="195">
+      <c r="A35" s="167">
         <v>32</v>
       </c>
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="168" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="203">
+      <c r="C35" s="175">
         <v>0</v>
       </c>
-      <c r="D35" s="206">
+      <c r="D35" s="178">
         <v>3</v>
       </c>
-      <c r="E35" s="197" t="s">
+      <c r="E35" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="198"/>
-      <c r="G35" s="199">
+      <c r="F35" s="170"/>
+      <c r="G35" s="171">
         <v>43922</v>
       </c>
-      <c r="H35" s="199">
+      <c r="H35" s="171">
         <v>44013</v>
       </c>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
     </row>
     <row r="37" spans="1:10" ht="18.75">
-      <c r="A37" s="201"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="202"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4" xr:uid="{EDCB836B-2329-44D4-B573-E772EDE84FB3}">
+  <autoFilter ref="A3:U4">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -25205,11 +26671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8687536E-4353-47B1-B03D-708B61D1D694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H3" sqref="H3:I34"/>
@@ -25220,9 +26686,9 @@
     <col min="3" max="3" width="9.140625" style="68"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="95.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="180"/>
-    <col min="8" max="8" width="9.42578125" style="182" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="182"/>
+    <col min="6" max="6" width="9.140625" style="153"/>
+    <col min="8" max="8" width="9.42578125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="155"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -25232,7 +26698,7 @@
       <c r="E2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="180" t="s">
+      <c r="F2" s="153" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -25252,10 +26718,10 @@
       <c r="E3" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="182">
+      <c r="H3" s="155">
         <v>44287</v>
       </c>
-      <c r="I3" s="182">
+      <c r="I3" s="155">
         <v>44348</v>
       </c>
     </row>
@@ -25272,10 +26738,10 @@
       <c r="E4" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="182">
+      <c r="H4" s="155">
         <v>44317</v>
       </c>
-      <c r="I4" s="182">
+      <c r="I4" s="155">
         <v>44348</v>
       </c>
     </row>
@@ -25292,10 +26758,10 @@
       <c r="E5" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="182">
+      <c r="H5" s="155">
         <v>44317</v>
       </c>
-      <c r="I5" s="182">
+      <c r="I5" s="155">
         <v>44378</v>
       </c>
     </row>
@@ -25312,13 +26778,13 @@
       <c r="E6" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="180">
+      <c r="F6" s="153">
         <v>21.44</v>
       </c>
-      <c r="H6" s="182">
+      <c r="H6" s="155">
         <v>44378</v>
       </c>
-      <c r="I6" s="182">
+      <c r="I6" s="155">
         <v>44531</v>
       </c>
     </row>
@@ -25338,10 +26804,10 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="182">
+      <c r="H7" s="155">
         <v>44378</v>
       </c>
-      <c r="I7" s="182">
+      <c r="I7" s="155">
         <v>44531</v>
       </c>
     </row>
@@ -25358,10 +26824,10 @@
       <c r="E8" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="182">
+      <c r="H8" s="155">
         <v>44317</v>
       </c>
-      <c r="I8" s="182">
+      <c r="I8" s="155">
         <v>44378</v>
       </c>
     </row>
@@ -25378,16 +26844,16 @@
       <c r="E9" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="180">
+      <c r="F9" s="153">
         <v>1.98</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="182">
+      <c r="H9" s="155">
         <v>44501</v>
       </c>
-      <c r="I9" s="182">
+      <c r="I9" s="155">
         <v>44593</v>
       </c>
     </row>
@@ -25404,13 +26870,13 @@
       <c r="E10" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="180">
+      <c r="F10" s="153">
         <v>5</v>
       </c>
-      <c r="H10" s="182">
+      <c r="H10" s="155">
         <v>44501</v>
       </c>
-      <c r="I10" s="182">
+      <c r="I10" s="155">
         <v>44593</v>
       </c>
     </row>
@@ -25427,13 +26893,13 @@
       <c r="E11" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="180">
+      <c r="F11" s="153">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H11" s="182">
+      <c r="H11" s="155">
         <v>44562</v>
       </c>
-      <c r="I11" s="182">
+      <c r="I11" s="155">
         <v>44621</v>
       </c>
     </row>
@@ -25450,37 +26916,37 @@
       <c r="E12" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="180">
+      <c r="F12" s="153">
         <v>1.2050000000000001</v>
       </c>
-      <c r="H12" s="182">
+      <c r="H12" s="155">
         <v>44531</v>
       </c>
-      <c r="I12" s="182">
+      <c r="I12" s="155">
         <v>44621</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="183">
+      <c r="B13" s="156">
         <v>1</v>
       </c>
       <c r="C13" s="68">
         <v>11</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="184">
+      <c r="F13" s="157">
         <v>0.66924000000000006</v>
       </c>
-      <c r="G13" s="183"/>
-      <c r="H13" s="185">
+      <c r="G13" s="156"/>
+      <c r="H13" s="158">
         <v>44348</v>
       </c>
-      <c r="I13" s="185">
+      <c r="I13" s="158">
         <v>44409</v>
       </c>
     </row>
@@ -25497,13 +26963,13 @@
       <c r="E14" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="180">
+      <c r="F14" s="153">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H14" s="182">
+      <c r="H14" s="155">
         <v>44470</v>
       </c>
-      <c r="I14" s="182">
+      <c r="I14" s="155">
         <v>44501</v>
       </c>
     </row>
@@ -25520,13 +26986,13 @@
       <c r="E15" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="180">
+      <c r="F15" s="153">
         <v>0.3654</v>
       </c>
-      <c r="H15" s="182">
+      <c r="H15" s="155">
         <v>44531</v>
       </c>
-      <c r="I15" s="182">
+      <c r="I15" s="155">
         <v>44593</v>
       </c>
     </row>
@@ -25543,7 +27009,7 @@
       <c r="E16" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="180">
+      <c r="F16" s="153">
         <v>0.56784000000000001</v>
       </c>
     </row>
@@ -25560,13 +27026,13 @@
       <c r="E17" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="180">
+      <c r="F17" s="153">
         <v>0.16224</v>
       </c>
-      <c r="H17" s="182">
+      <c r="H17" s="155">
         <v>44593</v>
       </c>
-      <c r="I17" s="182">
+      <c r="I17" s="155">
         <v>44256</v>
       </c>
     </row>
@@ -25583,13 +27049,13 @@
       <c r="E18" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="180">
+      <c r="F18" s="153">
         <v>0.15209999999999999</v>
       </c>
-      <c r="H18" s="182">
+      <c r="H18" s="155">
         <v>44593</v>
       </c>
-      <c r="I18" s="182">
+      <c r="I18" s="155">
         <v>44256</v>
       </c>
     </row>
@@ -25606,13 +27072,13 @@
       <c r="E19" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="180">
+      <c r="F19" s="153">
         <v>0.12168000000000001</v>
       </c>
-      <c r="H19" s="182">
+      <c r="H19" s="155">
         <v>44501</v>
       </c>
-      <c r="I19" s="182">
+      <c r="I19" s="155">
         <v>44562</v>
       </c>
     </row>
@@ -25629,7 +27095,7 @@
       <c r="E20" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="180">
+      <c r="F20" s="153">
         <v>0.1014</v>
       </c>
     </row>
@@ -25646,13 +27112,13 @@
       <c r="E21" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="180">
+      <c r="F21" s="153">
         <v>0</v>
       </c>
-      <c r="H21" s="182">
+      <c r="H21" s="155">
         <v>44013</v>
       </c>
-      <c r="I21" s="182">
+      <c r="I21" s="155">
         <v>44075</v>
       </c>
     </row>
@@ -25669,16 +27135,16 @@
       <c r="E22" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="180">
+      <c r="F22" s="153">
         <v>0</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22" s="182">
+      <c r="H22" s="155">
         <v>43922</v>
       </c>
-      <c r="I22" s="182">
+      <c r="I22" s="155">
         <v>43983</v>
       </c>
     </row>
@@ -25695,13 +27161,13 @@
       <c r="E23" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="180">
+      <c r="F23" s="153">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H23" s="182">
+      <c r="H23" s="155">
         <v>43922</v>
       </c>
-      <c r="I23" s="182">
+      <c r="I23" s="155">
         <v>43983</v>
       </c>
     </row>
@@ -25718,7 +27184,7 @@
       <c r="E24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="180">
+      <c r="F24" s="153">
         <v>0.12</v>
       </c>
     </row>
@@ -25735,13 +27201,13 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="180">
+      <c r="F25" s="153">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H25" s="182">
+      <c r="H25" s="155">
         <v>44317</v>
       </c>
-      <c r="I25" s="182">
+      <c r="I25" s="155">
         <v>44317</v>
       </c>
     </row>
@@ -25758,13 +27224,13 @@
       <c r="E26" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="180">
+      <c r="F26" s="153">
         <v>4.5</v>
       </c>
-      <c r="H26" s="182">
+      <c r="H26" s="155">
         <v>44378</v>
       </c>
-      <c r="I26" s="182">
+      <c r="I26" s="155">
         <v>44440</v>
       </c>
     </row>
@@ -25781,13 +27247,13 @@
       <c r="E27" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="180">
+      <c r="F27" s="153">
         <v>0</v>
       </c>
-      <c r="H27" s="182">
+      <c r="H27" s="155">
         <v>44136</v>
       </c>
-      <c r="I27" s="182">
+      <c r="I27" s="155">
         <v>44197</v>
       </c>
     </row>
@@ -25804,13 +27270,13 @@
       <c r="E28" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="180">
+      <c r="F28" s="153">
         <v>0</v>
       </c>
-      <c r="H28" s="182">
+      <c r="H28" s="155">
         <v>44105</v>
       </c>
-      <c r="I28" s="182">
+      <c r="I28" s="155">
         <v>44136</v>
       </c>
     </row>
@@ -25827,13 +27293,13 @@
       <c r="E29" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="180">
+      <c r="F29" s="153">
         <v>0</v>
       </c>
-      <c r="H29" s="182">
+      <c r="H29" s="155">
         <v>44166</v>
       </c>
-      <c r="I29" s="182">
+      <c r="I29" s="155">
         <v>44197</v>
       </c>
     </row>
@@ -25850,13 +27316,13 @@
       <c r="E30" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="180">
+      <c r="F30" s="153">
         <v>14</v>
       </c>
-      <c r="H30" s="182">
+      <c r="H30" s="155">
         <v>43922</v>
       </c>
-      <c r="I30" s="182">
+      <c r="I30" s="155">
         <v>43983</v>
       </c>
     </row>
@@ -25873,13 +27339,13 @@
       <c r="E31" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="180">
+      <c r="F31" s="153">
         <v>0.41574</v>
       </c>
-      <c r="H31" s="182">
+      <c r="H31" s="155">
         <v>44075</v>
       </c>
-      <c r="I31" s="182">
+      <c r="I31" s="155">
         <v>44105</v>
       </c>
     </row>
@@ -25896,13 +27362,13 @@
       <c r="E32" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="180">
+      <c r="F32" s="153">
         <v>0</v>
       </c>
-      <c r="H32" s="182">
+      <c r="H32" s="155">
         <v>43922</v>
       </c>
-      <c r="I32" s="182">
+      <c r="I32" s="155">
         <v>44256</v>
       </c>
     </row>
@@ -25919,7 +27385,7 @@
       <c r="E33" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="180">
+      <c r="F33" s="153">
         <v>0</v>
       </c>
     </row>
@@ -25936,25 +27402,25 @@
       <c r="E34" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="180">
+      <c r="F34" s="153">
         <v>0</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" s="182">
+      <c r="H34" s="155">
         <v>43922</v>
       </c>
-      <c r="I34" s="182">
+      <c r="I34" s="155">
         <v>44013</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="F35" s="181">
+      <c r="F35" s="154">
         <f>SUM(F3:F34)</f>
         <v>56.693639999999988</v>
       </c>
-      <c r="G35" s="181">
+      <c r="G35" s="154">
         <f>SUM(G3:G34)</f>
         <v>10</v>
       </c>

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,20 +27,6 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
-    <definedName name="_xlchart.0" hidden="1">P3_1!$A$84</definedName>
-    <definedName name="_xlchart.1" hidden="1">P3_1!$A$85</definedName>
-    <definedName name="_xlchart.10" hidden="1">P3_1!$B$83:$F$83</definedName>
-    <definedName name="_xlchart.11" hidden="1">P3_1!$B$84:$F$84</definedName>
-    <definedName name="_xlchart.12" hidden="1">P3_1!$B$85:$F$85</definedName>
-    <definedName name="_xlchart.13" hidden="1">P3_1!$B$86:$F$86</definedName>
-    <definedName name="_xlchart.2" hidden="1">P3_1!$A$86</definedName>
-    <definedName name="_xlchart.3" hidden="1">P3_1!$B$83:$F$83</definedName>
-    <definedName name="_xlchart.4" hidden="1">P3_1!$B$84:$F$84</definedName>
-    <definedName name="_xlchart.5" hidden="1">P3_1!$B$85:$F$85</definedName>
-    <definedName name="_xlchart.6" hidden="1">P3_1!$B$86:$F$86</definedName>
-    <definedName name="_xlchart.7" hidden="1">P3_1!$A$84</definedName>
-    <definedName name="_xlchart.8" hidden="1">P3_1!$A$85</definedName>
-    <definedName name="_xlchart.9" hidden="1">P3_1!$A$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -58,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="211">
   <si>
     <t>Apr</t>
   </si>
@@ -692,18 +678,45 @@
   <si>
     <t>Completed</t>
   </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Storing</t>
+  </si>
+  <si>
+    <t>Kitting</t>
+  </si>
+  <si>
+    <t>kitting outside</t>
+  </si>
+  <si>
+    <t>Free temp</t>
+  </si>
+  <si>
+    <t>Total screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,6 +985,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1642,12 +1661,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1671,14 +1690,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1686,7 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1704,24 +1723,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1772,10 +1791,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,10 +1803,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1797,8 +1816,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1815,7 +1834,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1873,7 +1892,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1897,13 +1916,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,27 +1937,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1975,17 +1994,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="34" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2001,13 +2020,46 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2022,38 +2074,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2061,13 +2086,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2278,7 +2307,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2532,7 +2560,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2591,9 +2618,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2683,7 +2708,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2742,9 +2766,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3512,7 +3534,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3571,9 +3592,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3632,7 +3651,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3672,7 +3690,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3731,9 +3748,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3792,7 +3807,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3832,7 +3846,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3891,9 +3904,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3952,7 +3963,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3992,7 +4002,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4051,9 +4060,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4112,7 +4119,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4152,7 +4158,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4211,9 +4216,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4272,7 +4275,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4312,7 +4314,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4371,9 +4372,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4432,7 +4431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4472,7 +4470,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4530,9 +4527,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4615,7 +4610,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4705,9 +4699,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4820,7 +4812,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4869,9 +4860,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -4893,9 +4882,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -4927,9 +4914,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4988,7 +4973,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5028,7 +5012,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5087,9 +5070,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5148,7 +5129,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5188,7 +5168,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5256,9 +5235,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9581,7 +9558,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9829,7 +9805,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9908,9 +9883,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -10268,7 +10241,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10404,9 +10376,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -10428,9 +10398,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -10658,7 +10626,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10696,9 +10663,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -10720,9 +10685,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -10760,9 +10723,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -10858,7 +10819,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11298,7 +11258,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11445,9 +11404,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
                 </c:ext>
@@ -11531,9 +11488,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11646,7 +11601,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11768,7 +11722,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -11777,9 +11730,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -11787,7 +11738,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -11796,9 +11746,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -11806,7 +11754,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -11815,9 +11762,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -12001,7 +11946,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12110,7 +12054,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12262,7 +12205,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12414,7 +12356,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12566,7 +12507,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12668,7 +12608,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13107,7 +13046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13670,7 +13608,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13718,9 +13655,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -13815,7 +13750,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13863,9 +13797,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -13954,7 +13886,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -14003,9 +13934,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -14027,9 +13956,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -14067,9 +13994,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14160,7 +14085,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14606,7 +14530,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14739,7 +14662,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -14748,9 +14670,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-34E5-4465-AD3C-6763C90A9822}"/>
                 </c:ext>
@@ -14758,7 +14678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -14767,9 +14686,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-34E5-4465-AD3C-6763C90A9822}"/>
                 </c:ext>
@@ -14777,7 +14694,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -14786,9 +14702,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-34E5-4465-AD3C-6763C90A9822}"/>
                 </c:ext>
@@ -14967,7 +14881,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15076,7 +14989,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15228,7 +15140,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15380,7 +15291,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15532,7 +15442,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15634,7 +15543,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -16241,7 +16149,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19811,10 +19718,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20114,7 +20021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="21">
+    <row r="11" spans="1:21" ht="63">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -20143,7 +20050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="21">
+    <row r="12" spans="1:21" ht="63">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -20172,7 +20079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="21">
+    <row r="13" spans="1:21" ht="84">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -20804,6 +20711,116 @@
       </c>
       <c r="F86" s="68">
         <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="18">
+      <c r="B110" s="208" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="208" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="208" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="18">
+      <c r="B111" s="209" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="208">
+        <v>12</v>
+      </c>
+      <c r="D111" s="208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="18">
+      <c r="B112" s="209" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="208">
+        <v>3</v>
+      </c>
+      <c r="D112" s="208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="18">
+      <c r="B113" s="209" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="208">
+        <v>16</v>
+      </c>
+      <c r="D113" s="208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="18">
+      <c r="B114" s="209" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="208">
+        <v>8</v>
+      </c>
+      <c r="D114" s="208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="18">
+      <c r="B115" s="209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="208">
+        <v>7</v>
+      </c>
+      <c r="D115" s="208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="18">
+      <c r="B116" s="209" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="208">
+        <v>19</v>
+      </c>
+      <c r="D116" s="208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="18">
+      <c r="B117" s="208" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="208">
+        <v>65</v>
+      </c>
+      <c r="D117" s="208">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="18">
+      <c r="B119" s="208" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="210" t="s">
+        <v>203</v>
+      </c>
+      <c r="D119" s="210" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="18">
+      <c r="B120" s="210" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="210">
+        <v>65</v>
+      </c>
+      <c r="D120" s="211">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -21837,74 +21854,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
@@ -21916,28 +21865,44 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -22004,44 +21969,96 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -24540,29 +24557,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="196" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -24604,7 +24621,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -24654,7 +24671,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="189"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -24684,7 +24701,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="201" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -24736,7 +24753,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="190"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -24769,29 +24786,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="186"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -24845,10 +24862,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="193"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -24889,10 +24906,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -24916,7 +24933,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="194" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -24962,7 +24979,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="195"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -25010,138 +25027,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186" t="s">
+      <c r="B16" s="198"/>
+      <c r="C16" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="197">
+      <c r="B17" s="186"/>
+      <c r="C17" s="187">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="198">
+      <c r="B18" s="186"/>
+      <c r="C18" s="188">
         <v>16.3</v>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="201">
+      <c r="B19" s="190"/>
+      <c r="C19" s="191">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -25171,29 +25188,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="196" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -25235,7 +25252,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -25285,7 +25302,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="189"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -25311,7 +25328,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="205" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -25354,7 +25371,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="204"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -25379,29 +25396,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="186"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -25443,10 +25460,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="193"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -25462,10 +25479,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -25481,7 +25498,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="203" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -25530,7 +25547,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="206"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -25569,138 +25586,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186" t="s">
+      <c r="B16" s="198"/>
+      <c r="C16" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="197">
+      <c r="B17" s="186"/>
+      <c r="C17" s="187">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="198">
+      <c r="B18" s="186"/>
+      <c r="C18" s="188">
         <v>16.3</v>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="201">
+      <c r="B19" s="190"/>
+      <c r="C19" s="191">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870CE57F-B362-4DF7-83CC-25B63F1F5429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -34,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="213">
   <si>
     <t>Apr</t>
   </si>
@@ -705,11 +706,17 @@
   <si>
     <t>Total screen</t>
   </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1666,7 +1673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2005,6 +2012,16 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2020,10 +2037,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,35 +2091,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2080,30 +2103,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2884,7 +2894,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2984,7 +2993,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3120,7 +3128,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3182,7 +3189,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,7 +3263,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3315,10 +3321,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3458,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17250,7 +17255,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E18939-7C8B-4080-89D8-70A1B28DBEE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17288,7 +17293,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1470C260-78E1-4E93-89F6-641DBEF2687C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17326,7 +17331,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5C9FED-0596-4396-A01F-57116B88A17B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17364,7 +17369,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52F628D-AA3D-4F6E-86C5-FDF0CBC03E0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17402,7 +17407,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66C912A-BF57-4957-9B40-F350D699CEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17440,7 +17445,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0497BA7D-2445-44C3-9741-CC321D364186}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17478,7 +17483,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E482ED0A-4C4C-42E0-95AC-65561B9C7363}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17516,7 +17521,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF754EA9-E133-447B-BCF4-19252E9DCE80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17554,7 +17559,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8B3EC8-38EE-447B-8981-50B7C03749BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17592,7 +17597,7 @@
         <xdr:cNvPr id="11" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466E50AA-3367-461E-B15E-F16EA6FEBF05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17630,7 +17635,7 @@
         <xdr:cNvPr id="12" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D2A3D5-40E2-4425-A77C-71D0D2FB412C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17665,7 +17670,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17749,7 +17760,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48880CA4-F531-4F39-8DEE-455B6D3F6B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17787,7 +17798,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6500390-7050-4B73-930E-3481A9F1A2CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17825,7 +17836,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788E599A-0E86-42E4-B12A-4367DF6BCFAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17863,7 +17874,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526F3E1F-5A59-4EB3-A39B-823B3B92D953}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17901,7 +17912,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0724A4-496C-4BC1-A8DD-AF54646F2E43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17939,7 +17950,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4CFE6C-3AC5-4EE7-A80D-6BDA1BA3EA02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17977,7 +17988,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DEA599-184C-4FDF-A4D9-D3B4A56A0281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18015,7 +18026,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5ECA057-9DDA-42E1-8014-720D6CED8C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18053,7 +18064,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BDA991-E1C7-4954-B33D-2D01FA6BC415}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18091,7 +18102,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8333753B-1C5E-4146-937E-E0F0C6CCBCEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18134,7 +18145,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAED9D0D-2D0F-462E-ABB7-A8DDB4A05667}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18172,7 +18183,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC175F8-60A1-47BD-8129-8F7C540B3715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18210,7 +18221,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941DE811-DEB7-4ABC-B7BA-E5449D866532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18248,7 +18259,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C864ED6-10F2-44C1-9D8B-F0FA1BF329FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18286,7 +18297,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6988171-5FD9-4E8A-8DB9-5753BE63C975}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18324,7 +18335,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18A4183-2425-4465-A783-13B71333D53B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18362,7 +18373,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11FC225-2A9F-4710-862D-AE9A0AB8E525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18400,7 +18411,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802F61BB-3C9F-4518-A6D2-74E71E6A8427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18438,7 +18449,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40BDC53-FC28-4129-B371-C8CF4FBDD738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18476,7 +18487,7 @@
         <xdr:cNvPr id="11" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9A1258-7405-41F5-A44F-182ED55A9351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18514,7 +18525,7 @@
         <xdr:cNvPr id="12" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333EE64B-7FF1-4A3F-BC8B-7724A39E08AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18603,7 +18614,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6FDB22-1332-437E-BCB1-57ADBBA2E24C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18641,7 +18652,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19880F3-3674-4012-A7F9-402B82C32351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18679,7 +18690,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91B6997-5058-4A08-9A32-FFAB682047A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18717,7 +18728,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0714BC6E-BA14-4D78-BEB9-B1071DFB6DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18755,7 +18766,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBB2202-6EB1-4455-BBE8-C528784E2418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18793,7 +18804,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C647C07-3553-4914-9391-B50C4E57F777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18831,7 +18842,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C50291-6D44-4D37-A1F4-26B86AFB6106}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18869,7 +18880,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA273FF9-181D-43E8-9FAF-35A2DB1D6926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18907,7 +18918,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149267FA-4294-4F11-99D5-A5264B6F3FA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18945,7 +18956,7 @@
         <xdr:cNvPr id="11" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE11FCFE-D567-4DBA-ACAC-75BF402F7E21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18983,7 +18994,7 @@
         <xdr:cNvPr id="12" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AF49BC-C4F3-4407-AFDB-2DE050FAF0F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19072,7 +19083,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151C3214-E005-478D-8702-289A70BD48A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19399,18 +19410,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" name="Develop" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" name="Column1" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19714,14 +19725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19738,17 +19749,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -20690,7 +20701,7 @@
         <v>16</v>
       </c>
       <c r="F85" s="68">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -20707,120 +20718,147 @@
         <v>16</v>
       </c>
       <c r="E86" s="68">
+        <v>22</v>
+      </c>
+      <c r="F86" s="68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="18">
+      <c r="B110" s="180" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="180" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="68">
+        <v>2</v>
+      </c>
+      <c r="F110" s="212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="18">
+      <c r="B111" s="181" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="180">
+        <v>12</v>
+      </c>
+      <c r="D111" s="180">
+        <v>6</v>
+      </c>
+      <c r="E111" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="18">
+      <c r="B112" s="181" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="180">
+        <v>3</v>
+      </c>
+      <c r="D112" s="180">
+        <v>1</v>
+      </c>
+      <c r="E112" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="18">
+      <c r="B113" s="181" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="180">
+        <v>16</v>
+      </c>
+      <c r="D113" s="180">
+        <v>10</v>
+      </c>
+      <c r="E113" s="68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="18">
+      <c r="B114" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="180">
         <v>8</v>
       </c>
-      <c r="F86" s="68">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="18">
-      <c r="B110" s="208" t="s">
+      <c r="D114" s="180">
+        <v>8</v>
+      </c>
+      <c r="E114" s="44">
+        <v>2</v>
+      </c>
+      <c r="F114" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="18">
+      <c r="B115" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="180">
+        <v>7</v>
+      </c>
+      <c r="D115" s="180">
+        <v>7</v>
+      </c>
+      <c r="E115" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="18">
+      <c r="B116" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="180">
+        <v>19</v>
+      </c>
+      <c r="D116" s="180">
+        <v>3</v>
+      </c>
+      <c r="E116" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="18">
+      <c r="B117" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="180">
+        <v>65</v>
+      </c>
+      <c r="D117" s="180">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="18">
+      <c r="B119" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="C110" s="208" t="s">
+      <c r="C119" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="D110" s="208" t="s">
+      <c r="D119" s="182" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="18">
-      <c r="B111" s="209" t="s">
-        <v>205</v>
-      </c>
-      <c r="C111" s="208">
-        <v>12</v>
-      </c>
-      <c r="D111" s="208">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="18">
-      <c r="B112" s="209" t="s">
-        <v>206</v>
-      </c>
-      <c r="C112" s="208">
-        <v>3</v>
-      </c>
-      <c r="D112" s="208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="18">
-      <c r="B113" s="209" t="s">
-        <v>207</v>
-      </c>
-      <c r="C113" s="208">
-        <v>16</v>
-      </c>
-      <c r="D113" s="208">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="18">
-      <c r="B114" s="209" t="s">
-        <v>208</v>
-      </c>
-      <c r="C114" s="208">
-        <v>8</v>
-      </c>
-      <c r="D114" s="208">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="18">
-      <c r="B115" s="209" t="s">
-        <v>209</v>
-      </c>
-      <c r="C115" s="208">
-        <v>7</v>
-      </c>
-      <c r="D115" s="208">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" ht="18">
-      <c r="B116" s="209" t="s">
-        <v>32</v>
-      </c>
-      <c r="C116" s="208">
-        <v>19</v>
-      </c>
-      <c r="D116" s="208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" ht="18">
-      <c r="B117" s="208" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" s="208">
+    <row r="120" spans="2:6" ht="18">
+      <c r="B120" s="182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="182">
         <v>65</v>
       </c>
-      <c r="D117" s="208">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" ht="18">
-      <c r="B119" s="208" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="210" t="s">
-        <v>203</v>
-      </c>
-      <c r="D119" s="210" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" ht="18">
-      <c r="B120" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="210">
-        <v>65</v>
-      </c>
-      <c r="D120" s="211">
-        <v>35</v>
+      <c r="D120" s="183">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -20975,11 +21013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
@@ -21000,15 +21038,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
@@ -21029,24 +21067,24 @@
       <c r="A2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="187" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="90" t="s">
@@ -21854,7 +21892,163 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+          <x14:colorSeries theme="8"/>
+          <x14:colorNegative theme="9"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
+          <x14:colorLast theme="8" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
+          <x14:colorLow theme="8" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -21906,162 +22100,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>O5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>O6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>O7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>O9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>O10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>O11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>O12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>O13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
-          <x14:colorSeries theme="8"/>
-          <x14:colorNegative theme="9"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
-          <x14:colorLast theme="8" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
-          <x14:colorLow theme="8" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -22069,7 +22107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22093,17 +22131,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -23371,7 +23409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23394,17 +23432,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -24455,7 +24493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24468,11 +24506,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
     </row>
     <row r="2" spans="1:3" s="68" customFormat="1" ht="18.75">
       <c r="A2" s="80" t="s">
@@ -24533,7 +24571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24557,29 +24595,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="191" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="198"/>
+      <c r="B2" s="190"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -24621,7 +24659,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="192" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -24671,7 +24709,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -24701,7 +24739,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="194" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -24753,7 +24791,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -24786,29 +24824,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="198"/>
+      <c r="B9" s="190"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -24862,10 +24900,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="186"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -24906,10 +24944,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="193"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -24933,7 +24971,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -24979,7 +25017,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="194"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -25027,138 +25065,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198" t="s">
+      <c r="B16" s="190"/>
+      <c r="C16" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="187">
+      <c r="B17" s="197"/>
+      <c r="C17" s="201">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="188">
+      <c r="B18" s="197"/>
+      <c r="C18" s="202">
         <v>16.3</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191">
+      <c r="B19" s="204"/>
+      <c r="C19" s="205">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -25167,7 +25205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -25188,29 +25226,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="198"/>
+      <c r="B2" s="190"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -25252,7 +25290,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="192" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -25302,7 +25340,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -25328,7 +25366,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="207" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -25371,7 +25409,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="206"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -25396,29 +25434,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="195" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="198"/>
+      <c r="B9" s="190"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -25460,10 +25498,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="186"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -25479,10 +25517,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="193"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -25498,7 +25536,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="209" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -25547,7 +25585,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="204"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -25586,138 +25624,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198" t="s">
+      <c r="B16" s="190"/>
+      <c r="C16" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="187">
+      <c r="B17" s="197"/>
+      <c r="C17" s="201">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="188">
+      <c r="B18" s="197"/>
+      <c r="C18" s="202">
         <v>16.3</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191">
+      <c r="B19" s="204"/>
+      <c r="C19" s="205">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -25725,7 +25763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -25756,18 +25794,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="211" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
       <c r="K1" s="159"/>
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>
@@ -26614,7 +26652,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4">
+  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -26688,7 +26726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870CE57F-B362-4DF7-83CC-25B63F1F5429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -35,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="221">
   <si>
     <t>Apr</t>
   </si>
@@ -712,18 +711,42 @@
   <si>
     <t>menu</t>
   </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Goods receive</t>
+  </si>
+  <si>
+    <t>Kitting ouside</t>
+  </si>
+  <si>
+    <t>Free temp loacation</t>
+  </si>
+  <si>
+    <t>Kitting FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,8 +1022,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,8 +1081,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1665,6 +1721,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1673,7 +1770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2022,6 +2119,9 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2037,40 +2137,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2091,11 +2161,35 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2103,17 +2197,38 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2570,6 +2685,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2628,7 +2744,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2718,6 +2836,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2776,7 +2895,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2859,71 +2980,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>FY2023 Projects</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Summary</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>	</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2993,6 +3050,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3128,6 +3186,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3263,6 +3322,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3429,16 +3489,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3458,6 +3518,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3538,7 +3599,796 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15265048118985128"/>
+          <c:y val="0.14597222222222223"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.46030803441236512"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$N$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$O$111:$T$111</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Common</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitting FA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Goods receive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kitting ouside</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Free temp loacation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$O$112:$T$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$N$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NEW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0878011410434395E-2"/>
+                  <c:y val="-7.6252759284148701E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5229215974608152E-2"/>
+                  <c:y val="1.1437913892622305E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0878011410434315E-2"/>
+                  <c:y val="-3.812637964207435E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3053613692521194E-2"/>
+                  <c:y val="-6.9897555214613882E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1756022820868789E-2"/>
+                  <c:y val="-6.9897555214613882E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3053613692521273E-2"/>
+                  <c:y val="-3.8126379642075049E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$O$111:$T$111</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Common</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitting FA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Goods receive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kitting ouside</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Free temp loacation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$O$113:$T$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0146-4EC2-A8F1-34B7CF14CAA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="499197056"/>
+        <c:axId val="499197384"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="499197056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499197384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499197384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Screens</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.11168798099249162"/>
+              <c:y val="6.0505354126072892E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499197056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42547106072088836"/>
+          <c:y val="8.4306731827751627E-2"/>
+          <c:w val="0.21856169048751306"/>
+          <c:h val="8.4616516138334902E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3597,7 +4447,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3656,162 +4508,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3851,6 +4548,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3873,11 +4571,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3909,12 +4607,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3931,25 +4631,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3968,6 +4668,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4007,6 +4708,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4029,11 +4731,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4065,12 +4767,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4087,25 +4791,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4124,6 +4828,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4163,6 +4868,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4185,11 +4891,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4221,12 +4927,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4243,25 +4951,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4280,6 +4988,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4319,6 +5028,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4341,11 +5051,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4377,12 +5087,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4399,25 +5111,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4436,6 +5148,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4475,6 +5188,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4497,11 +5211,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$35</c:f>
+              <c:f>'Ita-Kona'!$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ISG</c:v>
+                  <c:v>Member6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4524,70 +5238,89 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$34:$M$34</c:f>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Normal Support</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trouble Support</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Develop</c:v>
+                  <c:v>D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$35:$M$35</c:f>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9479-4993-B4DA-938C32FD6A23}"/>
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4615,6 +5348,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4704,7 +5438,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4817,6 +5553,150 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$34:$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Normal Support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trouble Support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Develop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9479-4993-B4DA-938C32FD6A23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4865,7 +5745,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -4887,7 +5769,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -4919,7 +5803,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4978,162 +5864,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$31:$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$32:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC13-4968-8490-A87D6AC491AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5173,6 +5904,167 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC13-4968-8490-A87D6AC491AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5240,7 +6132,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5308,7 +6202,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5556,7 +6450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5753,7 +6647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5994,7 +6888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6380,7 +7274,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6574,7 +7468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7014,7 +7908,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7335,253 +8475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8784,7 +9678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9268,7 +10162,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9411,7 +10305,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9548,7 +10442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9563,6 +10457,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9795,7 +10690,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9810,6 +10705,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9888,7 +10784,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -9991,7 +10889,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10231,7 +11129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10246,6 +11144,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10381,7 +11280,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -10403,7 +11304,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -10616,7 +11519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10631,6 +11534,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10668,7 +11572,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -10690,7 +11596,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -10728,7 +11636,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -10809,7 +11719,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10824,6 +11734,355 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19962109281794321"/>
+                  <c:y val="3.5097009168245437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10460333077888202"/>
+                  <c:y val="0.1375199581552915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28920283357419752"/>
+                      <c:h val="0.21320120932345346"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11248,7 +12507,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11263,349 +12522,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19962109281794321"/>
-                  <c:y val="3.5097009168245437E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10460333077888202"/>
-                  <c:y val="0.1375199581552915"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.28920283357419752"/>
-                      <c:h val="0.21320120932345346"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11727,6 +12644,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -11735,7 +12653,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -11743,6 +12663,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -11751,7 +12672,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -11759,6 +12682,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -11767,7 +12691,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -11911,7 +12837,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11951,6 +12877,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12059,6 +12986,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12210,6 +13138,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12361,6 +13290,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12512,6 +13442,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12613,6 +13544,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13051,6 +13983,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13114,7 +14047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13598,7 +14531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13613,6 +14546,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13660,7 +14594,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -13740,7 +14676,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13755,6 +14691,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13802,7 +14739,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -13891,6 +14830,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13939,7 +14879,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -13961,7 +14903,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -13999,7 +14943,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14090,6 +15036,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14886,6 +15833,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14994,6 +15942,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15145,6 +16094,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15296,6 +16246,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15447,6 +16398,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15548,6 +16500,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -16154,6 +17107,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16258,6 +17212,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16641,6 +17596,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16702,6 +17658,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17235,6 +18231,474 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17686,6 +19150,124 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>624700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>106254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFD97A8-7449-4D34-85ED-67B392E8716C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16097249" y="24751393"/>
+          <a:ext cx="3169237" cy="2147325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618632</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>115209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBA1E8D-EE1D-4F2C-AEA5-11BD4529446A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3388179" y="30003750"/>
+          <a:ext cx="5680489" cy="4170138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2775857</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19410,18 +20992,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Develop" dataDxfId="3">
+    <tableColumn id="1" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column1" dataDxfId="0">
+    <tableColumn id="5" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19725,14 +21307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S100" sqref="S100"/>
+    <sheetView tabSelected="1" topLeftCell="E81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19745,21 +21327,28 @@
     <col min="6" max="6" width="12.85546875" style="68" customWidth="1"/>
     <col min="7" max="8" width="16.42578125" style="68" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.42578125" style="68" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="68"/>
+    <col min="10" max="14" width="9.140625" style="68"/>
+    <col min="15" max="15" width="12.140625" style="68" customWidth="1"/>
+    <col min="16" max="16" width="14" style="68" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="68" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="68" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" style="68" customWidth="1"/>
+    <col min="20" max="20" width="12" style="68" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -20724,7 +22313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="18">
+    <row r="110" spans="2:20" ht="18">
       <c r="B110" s="180" t="s">
         <v>202</v>
       </c>
@@ -20737,11 +22326,11 @@
       <c r="E110" s="68">
         <v>2</v>
       </c>
-      <c r="F110" s="212" t="s">
+      <c r="F110" s="184" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="18">
+    <row r="111" spans="2:20" ht="18">
       <c r="B111" s="181" t="s">
         <v>205</v>
       </c>
@@ -20754,8 +22343,26 @@
       <c r="E111" s="68">
         <v>9</v>
       </c>
+      <c r="O111" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P111" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q111" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="R111" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="S111" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="T111" s="68" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="112" spans="2:6" ht="18">
+    <row r="112" spans="2:20" ht="18">
       <c r="B112" s="181" t="s">
         <v>206</v>
       </c>
@@ -20768,8 +22375,29 @@
       <c r="E112" s="68">
         <v>1</v>
       </c>
+      <c r="N112" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="O112" s="68">
+        <v>19</v>
+      </c>
+      <c r="P112" s="68">
+        <v>16</v>
+      </c>
+      <c r="Q112" s="68">
+        <v>12</v>
+      </c>
+      <c r="R112" s="68">
+        <v>8</v>
+      </c>
+      <c r="S112" s="68">
+        <v>7</v>
+      </c>
+      <c r="T112" s="68">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="2:6" ht="18">
+    <row r="113" spans="2:20" ht="18">
       <c r="B113" s="181" t="s">
         <v>207</v>
       </c>
@@ -20782,8 +22410,29 @@
       <c r="E113" s="68">
         <v>10</v>
       </c>
+      <c r="N113" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="O113" s="68">
+        <v>4</v>
+      </c>
+      <c r="P113" s="68">
+        <v>9</v>
+      </c>
+      <c r="Q113" s="68">
+        <v>9</v>
+      </c>
+      <c r="R113" s="68">
+        <v>4</v>
+      </c>
+      <c r="S113" s="68">
+        <v>4</v>
+      </c>
+      <c r="T113" s="68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="114" spans="2:6" ht="18">
+    <row r="114" spans="2:20" ht="18">
       <c r="B114" s="181" t="s">
         <v>208</v>
       </c>
@@ -20800,7 +22449,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="18">
+    <row r="115" spans="2:20" ht="18">
       <c r="B115" s="181" t="s">
         <v>209</v>
       </c>
@@ -20814,7 +22463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="18">
+    <row r="116" spans="2:20" ht="18.75" thickBot="1">
       <c r="B116" s="181" t="s">
         <v>32</v>
       </c>
@@ -20828,7 +22477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="18">
+    <row r="117" spans="2:20" ht="24" thickBot="1">
       <c r="B117" s="180" t="s">
         <v>83</v>
       </c>
@@ -20838,8 +22487,26 @@
       <c r="D117" s="180">
         <v>35</v>
       </c>
+      <c r="R117" s="213"/>
+      <c r="S117" s="214" t="s">
+        <v>203</v>
+      </c>
+      <c r="T117" s="214" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="119" spans="2:6" ht="18">
+    <row r="118" spans="2:20" ht="15.75" thickTop="1">
+      <c r="R118" s="215" t="s">
+        <v>219</v>
+      </c>
+      <c r="S118" s="217">
+        <v>65</v>
+      </c>
+      <c r="T118" s="217">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" ht="18.75" thickBot="1">
       <c r="B119" s="180" t="s">
         <v>202</v>
       </c>
@@ -20849,8 +22516,13 @@
       <c r="D119" s="182" t="s">
         <v>204</v>
       </c>
+      <c r="R119" s="216" t="s">
+        <v>220</v>
+      </c>
+      <c r="S119" s="218"/>
+      <c r="T119" s="218"/>
     </row>
-    <row r="120" spans="2:6" ht="18">
+    <row r="120" spans="2:20" ht="18">
       <c r="B120" s="182" t="s">
         <v>210</v>
       </c>
@@ -20858,12 +22530,14 @@
         <v>65</v>
       </c>
       <c r="D120" s="183">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="S118:S119"/>
+    <mergeCell ref="T118:T119"/>
   </mergeCells>
   <conditionalFormatting sqref="E11">
     <cfRule type="dataBar" priority="4">
@@ -21013,11 +22687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
@@ -21038,15 +22712,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="186" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
@@ -21067,24 +22741,24 @@
       <c r="A2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="90" t="s">
@@ -21892,75 +23566,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -21971,32 +23577,48 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -22048,7 +23670,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -22059,44 +23681,96 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -22107,7 +23781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22131,17 +23805,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -23409,7 +25083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23432,17 +25106,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -24493,7 +26167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24506,11 +26180,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
     </row>
     <row r="2" spans="1:3" s="68" customFormat="1" ht="18.75">
       <c r="A2" s="80" t="s">
@@ -24571,7 +26245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24595,29 +26269,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="190"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -24659,7 +26333,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="204" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -24709,7 +26383,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="193"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -24739,7 +26413,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="206" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -24791,7 +26465,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="194"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -24824,29 +26498,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="207" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="190"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -24900,10 +26574,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -24944,7 +26618,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="190" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="198"/>
@@ -25068,135 +26742,135 @@
       <c r="A15" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="189" t="s">
+      <c r="A16" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="190"/>
-      <c r="C16" s="190" t="s">
+      <c r="B16" s="203"/>
+      <c r="C16" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="201">
+      <c r="B17" s="191"/>
+      <c r="C17" s="192">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="202">
+      <c r="B18" s="191"/>
+      <c r="C18" s="193">
         <v>16.3</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205">
+      <c r="B19" s="195"/>
+      <c r="C19" s="196">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -25205,7 +26879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -25226,29 +26900,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="190"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -25290,7 +26964,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="204" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -25340,7 +27014,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="193"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -25366,7 +27040,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="210" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -25409,7 +27083,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="208"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -25434,29 +27108,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="190"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -25498,10 +27172,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -25517,7 +27191,7 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="190" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="198"/>
@@ -25536,7 +27210,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="208" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -25585,7 +27259,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="210"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -25627,135 +27301,135 @@
       <c r="A15" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="189" t="s">
+      <c r="A16" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="190"/>
-      <c r="C16" s="190" t="s">
+      <c r="B16" s="203"/>
+      <c r="C16" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="201">
+      <c r="B17" s="191"/>
+      <c r="C17" s="192">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="202">
+      <c r="B18" s="191"/>
+      <c r="C18" s="193">
         <v>16.3</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205">
+      <c r="B19" s="195"/>
+      <c r="C19" s="196">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -25763,7 +27437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -25794,18 +27468,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
       <c r="K1" s="159"/>
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>
@@ -26652,7 +28326,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
+  <autoFilter ref="A3:U4">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -26726,11 +28400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H3" sqref="H3:I34"/>

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B09B9-05BD-4DC4-9503-C9FF20D76278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -34,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -739,7 +740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2122,8 +2123,26 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2137,10 +2156,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2161,35 +2210,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2197,38 +2222,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2685,7 +2686,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2744,9 +2744,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2836,7 +2834,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2895,9 +2892,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3050,7 +3045,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3186,7 +3180,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3248,7 +3241,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3315,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3384,7 +3376,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3510,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3739,7 +3730,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3880,9 +3870,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3903,9 +3891,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3926,9 +3912,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3949,9 +3933,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3972,9 +3954,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3995,9 +3975,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4038,7 +4016,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4160,7 +4137,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4201,13 +4178,13 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4216,6 +4193,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
@@ -4241,13 +4221,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
                 <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4388,7 +4368,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4447,9 +4426,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4508,7 +4485,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4548,7 +4524,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4607,9 +4582,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4668,7 +4641,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4708,7 +4680,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4767,9 +4738,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4828,7 +4797,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4868,7 +4836,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4927,9 +4894,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4988,7 +4953,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5028,7 +4992,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5087,9 +5050,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5148,7 +5109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5188,7 +5148,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5247,9 +5206,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5308,7 +5265,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5348,7 +5304,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5438,9 +5393,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5553,7 +5506,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5611,9 +5563,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5696,7 +5646,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5745,9 +5694,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -5769,9 +5716,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -5803,9 +5748,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5864,7 +5807,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5904,7 +5846,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5963,9 +5904,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6024,7 +5963,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6064,7 +6002,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6132,9 +6069,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10457,7 +10392,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10705,7 +10639,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10784,9 +10717,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -11144,7 +11075,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11280,9 +11210,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -11304,9 +11232,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4566-4635-B9A1-EC598AF49EB6}"/>
                 </c:ext>
@@ -11534,7 +11460,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11572,9 +11497,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -11596,9 +11519,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-7982-45B2-8456-DD477D007D98}"/>
                 </c:ext>
@@ -11636,9 +11557,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -11734,7 +11653,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11881,9 +11799,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
                 </c:ext>
@@ -11967,9 +11883,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -12082,7 +11996,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12522,7 +12435,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12644,7 +12556,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -12653,9 +12564,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -12663,7 +12572,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -12672,9 +12580,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -12682,7 +12588,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -12691,9 +12596,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E048-4EA9-BEE9-84544D38A68D}"/>
                 </c:ext>
@@ -12877,7 +12780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12986,7 +12888,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13138,7 +13039,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13290,7 +13190,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13442,7 +13341,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13544,7 +13442,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13983,7 +13880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14546,7 +14442,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -14594,9 +14489,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -14691,7 +14584,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -14739,9 +14631,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -14830,7 +14720,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -14879,9 +14768,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -14903,9 +14790,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
                 </c:ext>
@@ -14943,9 +14828,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -15036,7 +14919,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15833,7 +15715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15942,7 +15823,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16094,7 +15974,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16246,7 +16125,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16398,7 +16276,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16500,7 +16377,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -17107,7 +16983,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17212,7 +17087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17596,7 +17470,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19173,7 +19046,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFD97A8-7449-4D34-85ED-67B392E8716C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19217,7 +19090,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBA1E8D-EE1D-4F2C-AEA5-11BD4529446A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19258,7 +19131,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -20992,18 +20871,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" name="Develop" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" name="Column1" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21307,14 +21186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21338,17 +21217,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -22290,7 +22169,7 @@
         <v>16</v>
       </c>
       <c r="F85" s="68">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -22310,7 +22189,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="68">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="2:20" ht="18">
@@ -22487,22 +22366,22 @@
       <c r="D117" s="180">
         <v>35</v>
       </c>
-      <c r="R117" s="213"/>
-      <c r="S117" s="214" t="s">
+      <c r="R117" s="185"/>
+      <c r="S117" s="186" t="s">
         <v>203</v>
       </c>
-      <c r="T117" s="214" t="s">
+      <c r="T117" s="186" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="118" spans="2:20" ht="15.75" thickTop="1">
-      <c r="R118" s="215" t="s">
+      <c r="R118" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="S118" s="217">
+      <c r="S118" s="190">
         <v>65</v>
       </c>
-      <c r="T118" s="217">
+      <c r="T118" s="190">
         <v>32</v>
       </c>
     </row>
@@ -22516,11 +22395,11 @@
       <c r="D119" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="R119" s="216" t="s">
+      <c r="R119" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="S119" s="218"/>
-      <c r="T119" s="218"/>
+      <c r="S119" s="191"/>
+      <c r="T119" s="191"/>
     </row>
     <row r="120" spans="2:20" ht="18">
       <c r="B120" s="182" t="s">
@@ -22687,7 +22566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -22712,15 +22591,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
@@ -22741,24 +22620,24 @@
       <c r="A2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="90" t="s">
@@ -23566,7 +23445,163 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+          <x14:colorSeries theme="8"/>
+          <x14:colorNegative theme="9"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
+          <x14:colorLast theme="8" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
+          <x14:colorLow theme="8" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -23618,162 +23653,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>O5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>O6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>O7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>O9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>O10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>O11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>O12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>O13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
-          <x14:colorSeries theme="8"/>
-          <x14:colorNegative theme="9"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
-          <x14:colorLast theme="8" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
-          <x14:colorLow theme="8" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -23781,7 +23660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23805,17 +23684,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -25083,7 +24962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -25106,17 +24985,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -26167,7 +26046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26180,11 +26059,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
     </row>
     <row r="2" spans="1:3" s="68" customFormat="1" ht="18.75">
       <c r="A2" s="80" t="s">
@@ -26245,7 +26124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -26269,29 +26148,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="198" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -26333,7 +26212,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -26383,7 +26262,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="205"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -26413,7 +26292,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="201" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -26465,7 +26344,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="206"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -26498,29 +26377,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="207"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="207"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="203"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -26574,10 +26453,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="191"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -26618,10 +26497,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="198"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -26645,7 +26524,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="206" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -26691,7 +26570,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -26739,138 +26618,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="190" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="191"/>
-      <c r="C18" s="193">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -26879,7 +26758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -26900,29 +26779,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="198" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -26964,7 +26843,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -27014,7 +26893,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="205"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -27040,7 +26919,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="214" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -27083,7 +26962,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="211"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -27108,29 +26987,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="207"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="207"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="203"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -27172,10 +27051,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="191"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -27191,10 +27070,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="198"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -27210,7 +27089,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="208" t="s">
+      <c r="A12" s="216" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -27259,7 +27138,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -27298,138 +27177,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="190" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="191"/>
-      <c r="C18" s="193">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -27437,7 +27316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -27468,18 +27347,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
       <c r="K1" s="159"/>
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>
@@ -28326,7 +28205,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4">
+  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -28400,7 +28279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B09B9-05BD-4DC4-9503-C9FF20D76278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B16545D-2C9A-448E-BF9C-819BF204A96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="226">
   <si>
     <t>Apr</t>
   </si>
@@ -734,7 +734,22 @@
     <t xml:space="preserve">Total </t>
   </si>
   <si>
-    <t>screen</t>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Develop Time</t>
+  </si>
+  <si>
+    <t>Support time</t>
+  </si>
+  <si>
+    <t>Develop time</t>
+  </si>
+  <si>
+    <t>Functions</t>
   </si>
 </sst>
 </file>
@@ -747,7 +762,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1058,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2132,9 +2153,6 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,40 +2174,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2210,11 +2198,35 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2222,8 +2234,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4199,7 +4220,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Screens</a:t>
+                  <a:t>Functions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4368,13 +4389,64 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Improvement Activity Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.415650193370372E-2"/>
+          <c:y val="3.2650344922063368E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4382,116 +4454,303 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17832968244939124"/>
+          <c:y val="0.23059863780559262"/>
+          <c:w val="0.37732135296649377"/>
+          <c:h val="0.46337945160314942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$17</c:f>
+              <c:f>P3_1!$N$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member1</c:v>
+                  <c:v>Develop time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
+              <c:f>P3_1!$M$62:$M$64</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>S</c:v>
+                  <c:v>Before</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
+                  <c:v>After</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
+              <c:f>P3_1!$N$62:$N$64</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
+              <c16:uniqueId val="{00000000-26F5-4AEF-A3E3-679A2316D106}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$O$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Support time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$M$62:$M$64</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Before</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$O$62:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26F5-4AEF-A3E3-679A2316D106}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="109106048"/>
+        <c:axId val="2144076720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109106048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144076720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2144076720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109106048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62314056425706421"/>
+          <c:y val="0.76692980103488506"/>
+          <c:w val="0.27347294763172186"/>
+          <c:h val="0.17492908925370274"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4499,8 +4758,40 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4524,13 +4815,68 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Activity Comparation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2057813287792348"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4539,115 +4885,432 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
+              <c:f>P3_1!$R$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member2</c:v>
+                  <c:v>Develop Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
+              <c:f>P3_1!$Q$62:$Q$73</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>S</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>D</c:v>
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
+              <c:f>P3_1!$R$62:$R$73</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
+              <c16:uniqueId val="{00000000-267F-44EF-9E3E-F95346924ED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$S$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Support time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$Q$62:$Q$73</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$S$62:$S$73</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-267F-44EF-9E3E-F95346924ED9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="311153648"/>
+        <c:axId val="1786150448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="311153648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786150448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1786150448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311153648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4655,8 +5318,40 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4702,11 +5397,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4731,10 +5426,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
@@ -4743,7 +5438,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4760,35 +5455,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -4858,11 +5553,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4899,7 +5594,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4916,15 +5611,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25</c:v>
@@ -4934,7 +5629,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5014,11 +5709,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5055,7 +5750,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5072,25 +5767,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5170,11 +5865,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5211,7 +5906,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5228,25 +5923,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5528,6 +6223,318 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Ita-Kona'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -5631,7 +6638,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5831,7 +6838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5987,7 +6994,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6137,7 +7144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6385,7 +7392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6582,7 +7589,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6823,7 +7830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7209,7 +8216,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7403,7 +8656,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7843,253 +9096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8410,7 +9417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9613,7 +10620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10097,7 +11104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10240,7 +11247,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10377,7 +11384,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10624,7 +11631,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10820,7 +11827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11060,7 +12067,350 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19962109281794321"/>
+                  <c:y val="3.5097009168245437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10460333077888202"/>
+                  <c:y val="0.1375199581552915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28920283357419752"/>
+                      <c:h val="0.21320120932345346"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11445,7 +12795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11638,350 +12988,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19962109281794321"/>
-                  <c:y val="3.5097009168245437E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10460333077888202"/>
-                  <c:y val="0.1375199581552915"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.28920283357419752"/>
-                      <c:h val="0.21320120932345346"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12420,7 +13427,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12740,7 +13747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13943,7 +14950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14427,7 +15434,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14569,7 +15576,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17571,6 +18578,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18572,6 +19659,1014 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19147,6 +21242,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885826</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552BBF7F-9756-4844-B88C-70A007F0A739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400052</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A84D3B-F2DB-40B8-BF9A-DB17EEEC95D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21192,8 +23359,8 @@
   </sheetPr>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="G104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21206,7 +23373,9 @@
     <col min="6" max="6" width="12.85546875" style="68" customWidth="1"/>
     <col min="7" max="8" width="16.42578125" style="68" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.42578125" style="68" customWidth="1"/>
-    <col min="10" max="14" width="9.140625" style="68"/>
+    <col min="10" max="12" width="9.140625" style="68"/>
+    <col min="13" max="13" width="14.7109375" style="68" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="68" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="68" customWidth="1"/>
     <col min="16" max="16" width="14" style="68" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" style="68" customWidth="1"/>
@@ -21217,17 +23386,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -21905,53 +24074,217 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" customHeight="1"/>
-    <row r="50" spans="2:3" ht="26.25">
+    <row r="50" spans="2:19" ht="26.25">
       <c r="B50" s="134" t="s">
         <v>139</v>
       </c>
       <c r="C50" s="38"/>
     </row>
-    <row r="51" spans="2:3" ht="26.25">
+    <row r="51" spans="2:19" ht="26.25">
       <c r="B51" s="135" t="s">
         <v>143</v>
       </c>
       <c r="C51" s="39"/>
     </row>
-    <row r="52" spans="2:3" ht="26.25">
+    <row r="52" spans="2:19" ht="26.25">
       <c r="B52" s="135" t="s">
         <v>141</v>
       </c>
       <c r="C52" s="39"/>
     </row>
-    <row r="53" spans="2:3" ht="26.25">
+    <row r="53" spans="2:19" ht="26.25">
       <c r="B53" s="136" t="s">
         <v>91</v>
       </c>
       <c r="C53" s="39"/>
     </row>
-    <row r="54" spans="2:3" ht="26.25">
+    <row r="54" spans="2:19" ht="26.25">
       <c r="B54" s="135" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="39"/>
     </row>
-    <row r="55" spans="2:3" ht="26.25">
+    <row r="55" spans="2:19" ht="26.25">
       <c r="B55" s="135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="26.25">
+    <row r="56" spans="2:19" ht="26.25">
       <c r="B56" s="135" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="26.25">
+    <row r="57" spans="2:19" ht="26.25">
       <c r="B57" s="135" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="76" spans="1:13">
+    <row r="61" spans="2:19">
+      <c r="N61" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="O61" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="R61" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="S61" s="68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="M62" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="N62" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O62" s="49">
+        <v>0.45</v>
+      </c>
+      <c r="Q62" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S62" s="49">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
+      <c r="M63" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="N63" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="O63" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="Q63" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="S63" s="49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
+      <c r="Q64" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" s="49">
+        <v>0.53</v>
+      </c>
+      <c r="S64" s="49">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="Q65" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="R65" s="49">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S65" s="49">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="Q66" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="49">
+        <v>0.45</v>
+      </c>
+      <c r="S66" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="Q67" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="R67" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="S67" s="49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="Q68" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="R68" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="S68" s="49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="Q69" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="R69" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="S69" s="49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="Q70" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="R70" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S70" s="49">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="Q71" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="R71" s="49">
+        <v>0.52</v>
+      </c>
+      <c r="S71" s="49">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="Q72" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="49">
+        <v>0.53</v>
+      </c>
+      <c r="S72" s="49">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="Q73" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="R73" s="49">
+        <v>0.52</v>
+      </c>
+      <c r="S73" s="49">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="76" spans="1:19">
       <c r="A76" s="40" t="s">
         <v>75</v>
       </c>
@@ -21991,8 +24324,14 @@
       <c r="M76" s="44" t="s">
         <v>11</v>
       </c>
+      <c r="R76" s="49">
+        <v>6.51</v>
+      </c>
+      <c r="S76" s="49">
+        <v>5.49</v>
+      </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:19">
       <c r="A77" s="45" t="s">
         <v>76</v>
       </c>
@@ -22033,7 +24372,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:19">
       <c r="A78" s="45" t="s">
         <v>77</v>
       </c>
@@ -22073,8 +24412,16 @@
       <c r="M78" s="48">
         <v>0.21</v>
       </c>
+      <c r="R78" s="68">
+        <f>651/12</f>
+        <v>54.25</v>
+      </c>
+      <c r="S78" s="68">
+        <f>549/12</f>
+        <v>45.75</v>
+      </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1">
       <c r="A79" s="50" t="s">
         <v>78</v>
       </c>
@@ -22115,7 +24462,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:18">
       <c r="B83" s="68">
         <v>2019</v>
       </c>
@@ -22131,8 +24478,14 @@
       <c r="F83" s="68">
         <v>2023</v>
       </c>
+      <c r="Q83" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="R83" s="68" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:18">
       <c r="A84" s="68" t="s">
         <v>83</v>
       </c>
@@ -22151,8 +24504,17 @@
       <c r="F84" s="68">
         <v>57</v>
       </c>
+      <c r="P84" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q84" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R84" s="49">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:18">
       <c r="A85" s="68" t="s">
         <v>200</v>
       </c>
@@ -22171,8 +24533,17 @@
       <c r="F85" s="68">
         <v>9</v>
       </c>
+      <c r="P85" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q85" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="R85" s="49">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:18">
       <c r="A86" s="68" t="s">
         <v>201</v>
       </c>
@@ -22378,10 +24749,10 @@
       <c r="R118" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="S118" s="190">
+      <c r="S118" s="189">
         <v>65</v>
       </c>
-      <c r="T118" s="190">
+      <c r="T118" s="189">
         <v>32</v>
       </c>
     </row>
@@ -22395,11 +24766,11 @@
       <c r="D119" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="R119" s="188" t="s">
-        <v>220</v>
-      </c>
-      <c r="S119" s="191"/>
-      <c r="T119" s="191"/>
+      <c r="R119" s="218" t="s">
+        <v>225</v>
+      </c>
+      <c r="S119" s="190"/>
+      <c r="T119" s="190"/>
     </row>
     <row r="120" spans="2:20" ht="18">
       <c r="B120" s="182" t="s">
@@ -22591,15 +24962,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
@@ -22620,24 +24991,24 @@
       <c r="A2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="90" t="s">
@@ -23445,75 +25816,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -23524,28 +25827,44 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -23601,7 +25920,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -23612,44 +25931,96 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -23684,17 +26055,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -24985,17 +27356,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -26059,11 +28430,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
     </row>
     <row r="2" spans="1:3" s="68" customFormat="1" ht="18.75">
       <c r="A2" s="80" t="s">
@@ -26148,29 +28519,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -26212,7 +28583,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="209" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -26262,7 +28633,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -26292,7 +28663,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="211" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -26344,7 +28715,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -26377,29 +28748,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -26453,10 +28824,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -26497,10 +28868,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -26524,7 +28895,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="204" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -26570,7 +28941,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="206"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -26618,138 +28989,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="206"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="208"/>
+      <c r="C16" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
+      <c r="N16" s="208"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="196"/>
+      <c r="C17" s="197">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="196"/>
+      <c r="C18" s="198">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="200"/>
+      <c r="C19" s="201">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -26779,29 +29150,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -26843,7 +29214,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="209" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -26893,7 +29264,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -26919,7 +29290,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="215" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -26962,7 +29333,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="215"/>
+      <c r="A6" s="216"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -26987,29 +29358,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="212" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -27051,10 +29422,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -27070,10 +29441,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -27089,7 +29460,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="213" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -27138,7 +29509,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="217"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -27177,138 +29548,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="206"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="208"/>
+      <c r="C16" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
+      <c r="N16" s="208"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="196"/>
+      <c r="C17" s="197">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="196"/>
+      <c r="C18" s="198">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="200"/>
+      <c r="C19" s="201">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -27347,18 +29718,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
       <c r="K1" s="159"/>
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B16545D-2C9A-448E-BF9C-819BF204A96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EFC8D-3EA5-4014-B72F-74BEEBB7018C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,26 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">P3_1!$N$140</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">P3_1!$N$141</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">P3_1!$N$140</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">P3_1!$N$141</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">P3_1!$O$139:$P$139</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">P3_1!$O$140:$P$140</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">P3_1!$O$141:$P$141</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">P3_1!$N$140</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">P3_1!$N$141</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">P3_1!$O$139:$P$139</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">P3_1!$O$140:$P$140</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">P3_1!$O$141:$P$141</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">P3_1!$O$139:$P$139</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">P3_1!$O$140:$P$140</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">P3_1!$O$141:$P$141</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">P3_1!$N$140</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">P3_1!$N$141</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">P3_1!$O$139:$P$139</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">P3_1!$O$140:$P$140</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">P3_1!$O$141:$P$141</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -45,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="233">
   <si>
     <t>Apr</t>
   </si>
@@ -750,6 +770,27 @@
   </si>
   <si>
     <t>Functions</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>Time inventory</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
@@ -2153,6 +2194,9 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2174,10 +2218,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2198,35 +2272,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2234,17 +2284,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5157,7 +5198,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5375,13 +5415,70 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Activities </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -5389,116 +5486,510 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2344912510936133"/>
+          <c:y val="0.26114986328953355"/>
+          <c:w val="0.38322594050743658"/>
+          <c:h val="0.53141246856174917"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$17</c:f>
+              <c:f>P3_1!$N$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member1</c:v>
+                  <c:v>Time inventory</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
+              <c:f>P3_1!$O$139:$P$139</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>S</c:v>
+                  <c:v>Before</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
+                  <c:v>After</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
+              <c:f>P3_1!$O$140:$P$140</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
+              <c16:uniqueId val="{00000000-914C-4598-A297-4C67718EDC01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="318084928"/>
+        <c:axId val="480371248"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$N$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$O$139:$P$139</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Before</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$O$141:$P$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-914C-4598-A297-4C67718EDC01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="318085328"/>
+        <c:axId val="423169360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="318084928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480371248"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480371248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>RAMS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.60833333333333328"/>
+              <c:y val="0.15282051546484782"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318084928"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423169360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>HOURS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.10197222222222224"/>
+              <c:y val="0.15143697460575695"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318085328"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="318085328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="423169360"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10718285214348207"/>
+          <c:y val="0.87523252381314565"/>
+          <c:w val="0.6189674103237095"/>
+          <c:h val="8.7931063376677623E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -5506,8 +5997,40 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5553,11 +6076,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
+              <c:f>'Ita-Kona'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member2</c:v>
+                  <c:v>Member1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5582,10 +6105,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
@@ -5594,7 +6117,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
+              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5611,35 +6134,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
+              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
+              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -5709,11 +6232,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5750,7 +6273,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5767,25 +6290,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5865,11 +6388,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5906,7 +6429,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5923,25 +6446,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6223,11 +6746,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6264,7 +6787,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6281,25 +6804,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6379,11 +6902,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6420,7 +6943,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6437,25 +6960,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6535,6 +7058,162 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Ita-Kona'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -6638,7 +7317,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6838,7 +7517,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6994,7 +7673,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7144,7 +7823,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7392,7 +8071,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7589,7 +8268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7830,7 +8509,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8216,253 +9141,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8656,7 +9335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9096,7 +9775,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9417,7 +10096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10620,7 +11299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11104,7 +11783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11247,7 +11926,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11384,7 +12063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11631,7 +12310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11827,7 +12506,350 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19962109281794321"/>
+                  <c:y val="3.5097009168245437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10460333077888202"/>
+                  <c:y val="0.1375199581552915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28920283357419752"/>
+                      <c:h val="0.21320120932345346"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12067,350 +13089,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19962109281794321"/>
-                  <c:y val="3.5097009168245437E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10460333077888202"/>
-                  <c:y val="0.1375199581552915"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.28920283357419752"/>
-                      <c:h val="0.21320120932345346"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12795,7 +13474,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12988,7 +13667,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13427,7 +14106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13747,7 +14426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14950,7 +15629,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15434,7 +16113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15576,7 +16255,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18658,6 +19337,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20667,6 +21386,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -21132,7 +22367,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>624700</xdr:colOff>
+      <xdr:colOff>624699</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>106254</xdr:rowOff>
     </xdr:to>
@@ -21314,6 +22549,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3165661</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442631</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>189378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB58FF03-C56B-475A-9839-7923BCC62837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23038,6 +24309,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DB36FF0-8A5A-4F08-A5BE-F947E07BD522}" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
+  <autoFilter ref="B151:G162" xr:uid="{45DE86A8-BE57-46E4-BAAE-1EBB11C0B57C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BA6B7895-8511-4C31-8EA3-3AAF083BBC00}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{781684D9-9C48-47CA-85A7-F1122A239039}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{1F07C3A8-97D7-48E3-980F-E266282F9420}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{98AD96C7-998D-4212-AA76-3D7F19952D5C}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{7E546F8B-3BE4-440C-A599-6A90DBBCF491}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{9C71D92D-6A1F-4CE7-8BE1-9963654E7E67}" name="Column6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
@@ -23357,10 +24643,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R123" sqref="R123"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23375,7 +24661,7 @@
     <col min="9" max="9" width="50.42578125" style="68" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="68"/>
     <col min="13" max="13" width="14.7109375" style="68" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="68" customWidth="1"/>
+    <col min="14" max="14" width="17" style="68" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="68" customWidth="1"/>
     <col min="16" max="16" width="14" style="68" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" style="68" customWidth="1"/>
@@ -23386,17 +24672,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -24749,10 +26035,10 @@
       <c r="R118" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="S118" s="189">
+      <c r="S118" s="190">
         <v>65</v>
       </c>
-      <c r="T118" s="189">
+      <c r="T118" s="190">
         <v>32</v>
       </c>
     </row>
@@ -24766,11 +26052,11 @@
       <c r="D119" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="R119" s="218" t="s">
+      <c r="R119" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="S119" s="190"/>
-      <c r="T119" s="190"/>
+      <c r="S119" s="191"/>
+      <c r="T119" s="191"/>
     </row>
     <row r="120" spans="2:20" ht="18">
       <c r="B120" s="182" t="s">
@@ -24781,6 +26067,56 @@
       </c>
       <c r="D120" s="183">
         <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="14:16">
+      <c r="O139" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="P139" s="68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="14:16">
+      <c r="N140" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="O140" s="68">
+        <v>1060</v>
+      </c>
+      <c r="P140" s="68">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="14:16">
+      <c r="N141" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="O141" s="68">
+        <v>3</v>
+      </c>
+      <c r="P141" s="68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D151" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E151" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F151" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G151" s="68" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -24862,6 +26198,9 @@
   <pageMargins left="0.7" right="0.7" top="0.31" bottom="0.3" header="0.16" footer="0.16"/>
   <pageSetup paperSize="8" scale="61" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -24962,15 +26301,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
@@ -24991,24 +26330,24 @@
       <c r="A2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="90" t="s">
@@ -25816,7 +27155,75 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -25827,44 +27234,28 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -25920,7 +27311,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -25931,96 +27322,44 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -26055,17 +27394,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -27356,17 +28695,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -28430,11 +29769,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
     </row>
     <row r="2" spans="1:3" s="68" customFormat="1" ht="18.75">
       <c r="A2" s="80" t="s">
@@ -28519,29 +29858,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="198" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="206"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -28583,7 +29922,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -28633,7 +29972,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="210"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -28663,7 +30002,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="201" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -28715,7 +30054,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="211"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -28748,29 +30087,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="212"/>
-      <c r="O8" s="212"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="208"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -28824,10 +30163,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="196"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -28868,10 +30207,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -28895,7 +30234,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="206" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -28941,7 +30280,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="204"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -28989,138 +30328,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="197">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="198">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="201">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -29150,29 +30489,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="198" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="206"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -29214,7 +30553,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -29264,7 +30603,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="210"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -29290,7 +30629,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="214" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -29333,7 +30672,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="216"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -29358,29 +30697,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="212"/>
-      <c r="O8" s="212"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="208"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -29422,10 +30761,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="196"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -29441,10 +30780,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -29460,7 +30799,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="216" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -29509,7 +30848,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="214"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -29548,138 +30887,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="197">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="198">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="201">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -29718,18 +31057,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
       <c r="K1" s="159"/>
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EFC8D-3EA5-4014-B72F-74BEEBB7018C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -55,7 +54,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="235">
   <si>
     <t>Apr</t>
   </si>
@@ -792,11 +791,17 @@
   <si>
     <t>Column6</t>
   </si>
+  <si>
+    <t>Normal support</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2218,40 +2223,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2272,17 +2247,47 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2291,7 +2296,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3107,6 +3112,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3242,6 +3248,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3377,6 +3384,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3572,6 +3580,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3792,6 +3801,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3932,7 +3942,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3953,7 +3965,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3974,7 +3988,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3995,7 +4011,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4016,7 +4034,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4037,7 +4057,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4799,6 +4821,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4806,7 +4829,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5358,6 +5380,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5365,7 +5388,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5455,6 +5477,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5695,6 +5718,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="480371248"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5724,7 +5748,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5767,7 +5791,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5819,6 +5843,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="318084928"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -5831,7 +5856,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5874,7 +5899,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5941,6 +5966,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="423169360"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5997,6 +6023,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6004,7 +6031,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6054,130 +6080,204 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
+              <c:f>P3_1!$I$165:$I$166</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>S</c:v>
+                  <c:v>Normal support</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
+                  <c:v>Development</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
+              <c:f>P3_1!$J$165:$J$166</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
+              <c16:uniqueId val="{00000000-CF3C-4E0F-BA3B-735EE8026275}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6187,6 +6287,31 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -6232,11 +6357,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
+              <c:f>'Ita-Kona'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member2</c:v>
+                  <c:v>Member1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6261,10 +6386,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
@@ -6273,7 +6398,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
+              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6290,35 +6415,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
+              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
+              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -6388,11 +6513,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6429,7 +6554,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6446,25 +6571,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6746,11 +6871,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6787,7 +6912,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6804,25 +6929,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6902,11 +7027,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6943,7 +7068,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6960,25 +7085,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7058,11 +7183,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7099,7 +7224,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7116,25 +7241,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7214,6 +7339,162 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Ita-Kona'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -7317,7 +7598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7517,7 +7798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7673,7 +7954,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7823,7 +8104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8071,7 +8352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8268,7 +8549,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8509,253 +9036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9141,7 +9422,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9335,7 +9616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9775,7 +10056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10096,7 +10377,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11299,7 +11580,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11783,7 +12064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11926,7 +12207,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12063,7 +12344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12310,202 +12591,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-E190-4B3E-B7D7-C0EE809CE307}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E190-4B3E-B7D7-C0EE809CE307}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-E190-4B3E-B7D7-C0EE809CE307}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0.6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>0.1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0.3</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:v>Member2</c:v>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strLit>
-                    <c:ptCount val="3"/>
-                    <c:pt idx="0">
-                      <c:v>S</c:v>
-                    </c:pt>
-                    <c:pt idx="1">
-                      <c:v>T</c:v>
-                    </c:pt>
-                    <c:pt idx="2">
-                      <c:v>D</c:v>
-                    </c:pt>
-                  </c:strLit>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E190-4B3E-B7D7-C0EE809CE307}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -12850,6 +12935,202 @@
 </file>
 
 <file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E190-4B3E-B7D7-C0EE809CE307}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E190-4B3E-B7D7-C0EE809CE307}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E190-4B3E-B7D7-C0EE809CE307}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Member2</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strLit>
+                    <c:ptCount val="3"/>
+                    <c:pt idx="0">
+                      <c:v>S</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>T</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>D</c:v>
+                    </c:pt>
+                  </c:strLit>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E190-4B3E-B7D7-C0EE809CE307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13089,7 +13370,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13474,7 +13755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13667,7 +13948,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14106,7 +14387,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14426,7 +14707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15629,7 +15910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16113,7 +16394,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16255,7 +16536,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -19377,6 +19658,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21902,6 +22223,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -22585,6 +23425,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258961</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>12502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>47030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24309,33 +25179,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DB36FF0-8A5A-4F08-A5BE-F947E07BD522}" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
-  <autoFilter ref="B151:G162" xr:uid="{45DE86A8-BE57-46E4-BAAE-1EBB11C0B57C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
+  <autoFilter ref="B151:G162"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA6B7895-8511-4C31-8EA3-3AAF083BBC00}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{781684D9-9C48-47CA-85A7-F1122A239039}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{1F07C3A8-97D7-48E3-980F-E266282F9420}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{98AD96C7-998D-4212-AA76-3D7F19952D5C}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{7E546F8B-3BE4-440C-A599-6A90DBBCF491}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{9C71D92D-6A1F-4CE7-8BE1-9963654E7E67}" name="Column6"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Develop" dataDxfId="3">
+    <tableColumn id="1" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column1" dataDxfId="0">
+    <tableColumn id="5" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -24639,14 +25509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U151"/>
+  <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="G141" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="R163" sqref="R163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26117,6 +26987,22 @@
       </c>
       <c r="G151" s="68" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="165" spans="9:10">
+      <c r="I165" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="J165" s="49">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="166" spans="9:10">
+      <c r="I166" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="J166" s="49">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -26276,7 +27162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -27155,75 +28041,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -27234,32 +28052,48 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -27311,7 +28145,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -27322,44 +28156,96 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -27370,7 +28256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -28672,7 +29558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -29756,7 +30642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29834,7 +30720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -29858,29 +30744,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -29922,7 +30808,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="210" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -29972,7 +30858,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -30002,7 +30888,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="212" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -30054,7 +30940,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -30087,29 +30973,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -30163,10 +31049,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -30207,10 +31093,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -30234,7 +31120,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="205" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -30280,7 +31166,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="206"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -30328,138 +31214,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="197"/>
+      <c r="C17" s="198">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="197"/>
+      <c r="C18" s="199">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="201"/>
+      <c r="C19" s="202">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -30468,7 +31354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -30489,29 +31375,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -30553,7 +31439,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="210" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -30603,7 +31489,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -30629,7 +31515,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="216" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -30672,7 +31558,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="215"/>
+      <c r="A6" s="217"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -30697,29 +31583,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="213" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -30761,10 +31647,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -30780,10 +31666,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -30799,7 +31685,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="214" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -30848,7 +31734,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="217"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -30887,138 +31773,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="197"/>
+      <c r="C17" s="198">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="197"/>
+      <c r="C18" s="199">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="201"/>
+      <c r="C19" s="202">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -31026,7 +31912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -31915,7 +32801,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
+  <autoFilter ref="A3:U4">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -31989,7 +32875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DBFABB-AEE8-4D45-B2D1-C7F49288F53F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -27,26 +28,6 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">P3_1!$N$140</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">P3_1!$N$141</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">P3_1!$N$140</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">P3_1!$N$141</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">P3_1!$O$139:$P$139</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">P3_1!$O$140:$P$140</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">P3_1!$O$141:$P$141</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">P3_1!$N$140</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">P3_1!$N$141</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">P3_1!$O$139:$P$139</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">P3_1!$O$140:$P$140</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">P3_1!$O$141:$P$141</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">P3_1!$O$139:$P$139</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">P3_1!$O$140:$P$140</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">P3_1!$O$141:$P$141</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">P3_1!$N$140</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">P3_1!$N$141</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">P3_1!$O$139:$P$139</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">P3_1!$O$140:$P$140</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">P3_1!$O$141:$P$141</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -54,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -801,7 +782,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2223,10 +2204,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2247,47 +2258,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2296,7 +2277,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3112,7 +3093,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3248,7 +3228,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3384,7 +3363,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3580,7 +3558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3801,7 +3778,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3942,9 +3918,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3965,9 +3939,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3988,9 +3960,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4011,9 +3981,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4034,9 +4002,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4057,9 +4023,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4524,7 +4488,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17832968244939124"/>
           <c:y val="0.23059863780559262"/>
-          <c:w val="0.37732135296649377"/>
+          <c:w val="0.30988494931918481"/>
           <c:h val="0.46337945160314942"/>
         </c:manualLayout>
       </c:layout>
@@ -4784,10 +4748,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62314056425706421"/>
-          <c:y val="0.76692980103488506"/>
-          <c:w val="0.27347294763172186"/>
-          <c:h val="0.17492908925370274"/>
+          <c:x val="0.36238137656145797"/>
+          <c:y val="0.31632383826723376"/>
+          <c:w val="0.19254939713485733"/>
+          <c:h val="0.22213095727617949"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4821,7 +4785,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4829,6 +4792,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5380,7 +5344,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5388,6 +5351,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5477,7 +5441,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6023,7 +5986,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6031,6 +5993,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6080,7 +6043,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6176,6 +6138,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E0E8-475E-8071-476F410C5B5F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6196,6 +6163,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E0E8-475E-8071-476F410C5B5F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6233,7 +6205,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6253,7 +6224,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23340,7 +23310,7 @@
         <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552BBF7F-9756-4844-B88C-70A007F0A739}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23376,7 +23346,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A84D3B-F2DB-40B8-BF9A-DB17EEEC95D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23412,7 +23382,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB58FF03-C56B-475A-9839-7923BCC62837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23445,7 +23415,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25179,33 +25155,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
-  <autoFilter ref="B151:G162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
+  <autoFilter ref="B151:G162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" name="Develop" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" name="Column1" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25509,14 +25485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G141" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="R163" sqref="R163"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R156" sqref="R156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27162,12 +27138,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28041,7 +28017,163 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+          <x14:colorSeries theme="8"/>
+          <x14:colorNegative theme="9"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
+          <x14:colorLast theme="8" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
+          <x14:colorLow theme="8" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -28093,162 +28225,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>O5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>O6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>O7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>O9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>O10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>O11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>O12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>O13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
-          <x14:colorSeries theme="8"/>
-          <x14:colorNegative theme="9"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
-          <x14:colorLast theme="8" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
-          <x14:colorLow theme="8" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -28256,7 +28232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -29558,7 +29534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -30642,7 +30618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30720,7 +30696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -30744,29 +30720,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="198" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -30808,7 +30784,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -30858,7 +30834,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="211"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -30888,7 +30864,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="201" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -30940,7 +30916,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="212"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -30973,29 +30949,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="209"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -31049,10 +31025,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -31093,10 +31069,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="204"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -31120,7 +31096,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="206" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -31166,7 +31142,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="205"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -31214,138 +31190,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="199">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -31354,7 +31330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -31375,29 +31351,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="198" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -31439,7 +31415,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -31489,7 +31465,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="211"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -31515,7 +31491,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="214" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -31558,7 +31534,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="217"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -31583,29 +31559,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="209"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -31647,10 +31623,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -31666,10 +31642,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="204"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -31685,7 +31661,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="216" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -31734,7 +31710,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="215"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -31773,138 +31749,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="199">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -31912,7 +31888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -32801,7 +32777,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4">
+  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -32875,7 +32851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DBFABB-AEE8-4D45-B2D1-C7F49288F53F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -28,6 +27,16 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
+    <definedName name="_xlchart.0" hidden="1">P3_1!$S$158:$S$160</definedName>
+    <definedName name="_xlchart.1" hidden="1">P3_1!$T$157</definedName>
+    <definedName name="_xlchart.2" hidden="1">P3_1!$T$158:$T$160</definedName>
+    <definedName name="_xlchart.3" hidden="1">P3_1!$U$157</definedName>
+    <definedName name="_xlchart.4" hidden="1">P3_1!$U$158:$U$160</definedName>
+    <definedName name="_xlchart.5" hidden="1">P3_1!$S$158:$S$160</definedName>
+    <definedName name="_xlchart.6" hidden="1">P3_1!$T$157</definedName>
+    <definedName name="_xlchart.7" hidden="1">P3_1!$T$158:$T$160</definedName>
+    <definedName name="_xlchart.8" hidden="1">P3_1!$U$157</definedName>
+    <definedName name="_xlchart.9" hidden="1">P3_1!$U$158:$U$160</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -35,7 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="236">
   <si>
     <t>Apr</t>
   </si>
@@ -778,11 +787,14 @@
   <si>
     <t>Development</t>
   </si>
+  <si>
+    <t>Hours dev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2204,40 +2216,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2258,17 +2240,47 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,7 +2289,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3093,6 +3105,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3228,6 +3241,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3363,6 +3377,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3558,6 +3573,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3778,6 +3794,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3918,7 +3935,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3939,7 +3958,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3960,7 +3981,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3981,7 +4004,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4002,7 +4027,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4023,7 +4050,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4785,6 +4814,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4792,7 +4822,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5313,6 +5342,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5344,6 +5374,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5351,7 +5382,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5441,6 +5471,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5986,6 +6017,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5993,7 +6025,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6043,6 +6074,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6224,6 +6256,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19024,6 +19057,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19407,6 +19441,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25155,33 +25190,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
-  <autoFilter ref="B151:G162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
+  <autoFilter ref="B151:G162"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Develop" dataDxfId="3">
+    <tableColumn id="1" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column1" dataDxfId="0">
+    <tableColumn id="5" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25485,14 +25520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R156" sqref="R156"/>
+    <sheetView tabSelected="1" topLeftCell="J142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V150" sqref="V150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25513,8 +25548,9 @@
     <col min="17" max="17" width="17.5703125" style="68" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" style="68" customWidth="1"/>
     <col min="19" max="19" width="21.42578125" style="68" customWidth="1"/>
-    <col min="20" max="20" width="12" style="68" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="68"/>
+    <col min="20" max="21" width="13.7109375" style="68" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="68" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5">
@@ -26945,7 +26981,37 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="147" spans="2:21">
+      <c r="T147" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="U147" s="68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="2:21">
+      <c r="S148" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="T148" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U148" s="49">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="149" spans="2:21">
+      <c r="S149" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="T149" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="U149" s="49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:21">
       <c r="B151" s="68" t="s">
         <v>111</v>
       </c>
@@ -26963,6 +27029,59 @@
       </c>
       <c r="G151" s="68" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="152" spans="2:21">
+      <c r="T152" s="49"/>
+      <c r="U152" s="49"/>
+    </row>
+    <row r="153" spans="2:21">
+      <c r="T153" s="49"/>
+      <c r="U153" s="49"/>
+    </row>
+    <row r="154" spans="2:21">
+      <c r="T154" s="49"/>
+      <c r="U154" s="49"/>
+    </row>
+    <row r="157" spans="2:21">
+      <c r="T157" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="U157" s="68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="2:21">
+      <c r="S158" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="T158" s="68">
+        <v>55</v>
+      </c>
+      <c r="U158" s="68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="2:21">
+      <c r="S159" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="T159" s="68">
+        <v>65</v>
+      </c>
+      <c r="U159" s="68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="2:21">
+      <c r="S160" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="T160" s="68">
+        <v>5</v>
+      </c>
+      <c r="U160" s="68">
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="9:10">
@@ -27138,7 +27257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -28017,75 +28136,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000005000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -28096,32 +28147,48 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -28173,7 +28240,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -28184,44 +28251,96 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -28232,7 +28351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -29534,7 +29653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -30618,7 +30737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30696,7 +30815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -30720,29 +30839,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -30784,7 +30903,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="210" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -30834,7 +30953,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -30864,7 +30983,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="212" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -30916,7 +31035,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -30949,29 +31068,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -31025,10 +31144,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -31069,10 +31188,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -31096,7 +31215,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="205" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -31142,7 +31261,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="206"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -31190,138 +31309,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="197"/>
+      <c r="C17" s="198">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="197"/>
+      <c r="C18" s="199">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="201"/>
+      <c r="C19" s="202">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -31330,7 +31449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -31351,29 +31470,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -31415,7 +31534,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="210" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -31465,7 +31584,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -31491,7 +31610,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="216" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -31534,7 +31653,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="215"/>
+      <c r="A6" s="217"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -31559,29 +31678,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="213" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -31623,10 +31742,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -31642,10 +31761,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -31661,7 +31780,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="214" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -31710,7 +31829,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="217"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -31749,138 +31868,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="197"/>
+      <c r="C17" s="198">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="197"/>
+      <c r="C18" s="199">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="201"/>
+      <c r="C19" s="202">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -31888,7 +32007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -32777,7 +32896,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
+  <autoFilter ref="A3:U4">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -32851,7 +32970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -27,16 +27,41 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
-    <definedName name="_xlchart.0" hidden="1">P3_1!$S$158:$S$160</definedName>
-    <definedName name="_xlchart.1" hidden="1">P3_1!$T$157</definedName>
-    <definedName name="_xlchart.2" hidden="1">P3_1!$T$158:$T$160</definedName>
-    <definedName name="_xlchart.3" hidden="1">P3_1!$U$157</definedName>
-    <definedName name="_xlchart.4" hidden="1">P3_1!$U$158:$U$160</definedName>
-    <definedName name="_xlchart.5" hidden="1">P3_1!$S$158:$S$160</definedName>
-    <definedName name="_xlchart.6" hidden="1">P3_1!$T$157</definedName>
-    <definedName name="_xlchart.7" hidden="1">P3_1!$T$158:$T$160</definedName>
-    <definedName name="_xlchart.8" hidden="1">P3_1!$U$157</definedName>
-    <definedName name="_xlchart.9" hidden="1">P3_1!$U$158:$U$160</definedName>
+    <definedName name="_xlchart.0" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.1" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.10" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.11" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.12" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.13" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.14" hidden="1">P3_1!$T$163:$V$163</definedName>
+    <definedName name="_xlchart.15" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.16" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.17" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.18" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.19" hidden="1">P3_1!$T$163:$V$163</definedName>
+    <definedName name="_xlchart.2" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.20" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.21" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.22" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.23" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.24" hidden="1">P3_1!$T$163:$V$163</definedName>
+    <definedName name="_xlchart.25" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.26" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.27" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.28" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.29" hidden="1">P3_1!$T$163:$V$163</definedName>
+    <definedName name="_xlchart.3" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.30" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.31" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.32" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.33" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.34" hidden="1">P3_1!$T$163:$V$163</definedName>
+    <definedName name="_xlchart.4" hidden="1">P3_1!$T$163:$V$163</definedName>
+    <definedName name="_xlchart.5" hidden="1">P3_1!$S$162</definedName>
+    <definedName name="_xlchart.6" hidden="1">P3_1!$S$163</definedName>
+    <definedName name="_xlchart.7" hidden="1">P3_1!$T$161:$V$161</definedName>
+    <definedName name="_xlchart.8" hidden="1">P3_1!$T$162:$V$162</definedName>
+    <definedName name="_xlchart.9" hidden="1">P3_1!$T$163:$V$163</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -788,7 +813,7 @@
     <t>Development</t>
   </si>
   <si>
-    <t>Hours dev</t>
+    <t>Hours dev/ 1 Day</t>
   </si>
 </sst>
 </file>
@@ -2216,10 +2241,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,47 +2295,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3105,7 +3130,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3241,7 +3265,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3377,7 +3400,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3573,7 +3595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5342,7 +5363,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,6 +6357,471 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16068613298337706"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78713342082239723"/>
+          <c:h val="0.68021471274424028"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$S$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$T$161:$V$161</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Develop time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Support time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hours dev/ 1 Day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$T$162:$V$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BD9-4E13-9198-0690DFE874F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P3_1!$S$163</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>P3_1!$T$161:$V$161</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Develop time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Support time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hours dev/ 1 Day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>P3_1!$T$163:$V$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BD9-4E13-9198-0690DFE874F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="446970984"/>
+        <c:axId val="446971312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="446970984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446971312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="446971312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446970984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:txPr>
@@ -6447,162 +6932,6 @@
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -6874,11 +7203,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6915,7 +7244,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6932,25 +7261,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7030,11 +7359,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7071,7 +7400,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7088,25 +7417,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7186,11 +7515,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7227,7 +7556,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7244,25 +7573,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7342,11 +7671,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7383,7 +7712,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7400,25 +7729,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7498,6 +7827,162 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Ita-Kona'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -7601,7 +8086,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7801,7 +8286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7957,7 +8442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8107,7 +8592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8355,7 +8840,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8552,253 +9283,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9039,7 +9524,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9425,7 +9910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9619,7 +10104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10059,7 +10544,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10380,7 +10865,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11583,7 +12068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12067,7 +12552,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12210,7 +12695,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12347,7 +12832,350 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19962109281794321"/>
+                  <c:y val="3.5097009168245437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10460333077888202"/>
+                  <c:y val="0.1375199581552915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28920283357419752"/>
+                      <c:h val="0.21320120932345346"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12594,350 +13422,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19962109281794321"/>
-                  <c:y val="3.5097009168245437E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10460333077888202"/>
-                  <c:y val="0.1375199581552915"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.28920283357419752"/>
-                      <c:h val="0.21320120932345346"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BB50-48A6-A146-C7ACADDE4E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$29:$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$30:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB50-48A6-A146-C7ACADDE4E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13133,7 +13618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13373,7 +13858,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13758,7 +14243,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13951,7 +14436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14390,7 +14875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14710,7 +15195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15913,7 +16398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16397,7 +16882,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16539,7 +17024,206 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11483609499427869"/>
+                  <c:y val="-0.11052515540778547"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13036047320549735"/>
+                  <c:y val="0.21178639826780946"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF27-4CE7-B4F9-AC31579B5342}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16667,205 +17351,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11483609499427869"/>
-                  <c:y val="-0.11052515540778547"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13036047320549735"/>
-                  <c:y val="0.21178639826780946"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$31:$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$32:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AF27-4CE7-B4F9-AC31579B5342}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -19057,7 +19542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19441,7 +19925,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19703,6 +20186,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22747,6 +23270,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -23401,16 +24440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3165661</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1092572</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>442631</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>189378</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>162484</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23471,6 +24510,659 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>840441</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1109382</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15710647" y="34211559"/>
+          <a:ext cx="414618" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>h</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>454959</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15773400" y="34397576"/>
+          <a:ext cx="414618" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>h</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>851647</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16976911" y="35018382"/>
+          <a:ext cx="414618" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>818029</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17873382" y="35455412"/>
+          <a:ext cx="414618" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>874058</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18344029" y="35657118"/>
+          <a:ext cx="414618" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23521,6 +25213,169 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65082</cdr:x>
+      <cdr:y>0.29221</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7415</cdr:x>
+      <cdr:y>0.39842</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2975536" y="801594"/>
+          <a:ext cx="414618" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23905,7 +25760,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24328,7 +26183,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -24374,7 +26229,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24797,7 +26652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -24843,7 +26698,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25524,10 +27379,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V150" sqref="V150"/>
+    <sheetView tabSelected="1" topLeftCell="J109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U123" sqref="U123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27043,48 +28898,46 @@
       <c r="T154" s="49"/>
       <c r="U154" s="49"/>
     </row>
-    <row r="157" spans="2:21">
-      <c r="T157" s="68" t="s">
+    <row r="161" spans="9:22">
+      <c r="T161" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="U161" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="V161" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="9:22">
+      <c r="S162" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="T162" s="68">
+        <v>65</v>
+      </c>
+      <c r="U162" s="68">
+        <v>35</v>
+      </c>
+      <c r="V162" s="68">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="163" spans="9:22">
+      <c r="S163" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="U157" s="68" t="s">
-        <v>221</v>
+      <c r="T163" s="68">
+        <v>55</v>
+      </c>
+      <c r="U163" s="68">
+        <v>45</v>
+      </c>
+      <c r="V163" s="68">
+        <v>5.5</v>
       </c>
     </row>
-    <row r="158" spans="2:21">
-      <c r="S158" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="T158" s="68">
-        <v>55</v>
-      </c>
-      <c r="U158" s="68">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="159" spans="2:21">
-      <c r="S159" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="T159" s="68">
-        <v>65</v>
-      </c>
-      <c r="U159" s="68">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="2:21">
-      <c r="S160" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="T160" s="68">
-        <v>5</v>
-      </c>
-      <c r="U160" s="68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="9:10">
+    <row r="165" spans="9:22">
       <c r="I165" s="68" t="s">
         <v>233</v>
       </c>
@@ -27092,7 +28945,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="166" spans="9:10">
+    <row r="166" spans="9:22">
       <c r="I166" s="68" t="s">
         <v>234</v>
       </c>
@@ -28136,6 +29989,74 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
@@ -28147,44 +30068,28 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -28251,96 +30156,44 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30839,29 +32692,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="198" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -30903,7 +32756,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -30953,7 +32806,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="211"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -30983,7 +32836,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="201" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -31035,7 +32888,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="212"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -31068,29 +32921,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="209"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -31144,10 +32997,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -31188,10 +33041,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="204"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -31215,7 +33068,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="206" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -31261,7 +33114,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="205"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -31309,138 +33162,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="199">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -31470,29 +33323,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="198" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -31534,7 +33387,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="199" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -31584,7 +33437,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="211"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -31610,7 +33463,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="214" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -31653,7 +33506,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="217"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -31678,29 +33531,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="209"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -31742,10 +33595,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -31761,10 +33614,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="204"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -31780,7 +33633,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="216" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -31829,7 +33682,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="215"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -31868,138 +33721,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198">
+      <c r="B17" s="204"/>
+      <c r="C17" s="208">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="199">
+      <c r="B18" s="204"/>
+      <c r="C18" s="209">
         <v>16.3</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38381F99-D6F5-4037-9008-314740E1C004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -27,41 +28,6 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
-    <definedName name="_xlchart.0" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.1" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.10" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.11" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.12" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.13" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.14" hidden="1">P3_1!$T$163:$V$163</definedName>
-    <definedName name="_xlchart.15" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.16" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.17" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.18" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.19" hidden="1">P3_1!$T$163:$V$163</definedName>
-    <definedName name="_xlchart.2" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.20" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.21" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.22" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.23" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.24" hidden="1">P3_1!$T$163:$V$163</definedName>
-    <definedName name="_xlchart.25" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.26" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.27" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.28" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.29" hidden="1">P3_1!$T$163:$V$163</definedName>
-    <definedName name="_xlchart.3" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.30" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.31" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.32" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.33" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.34" hidden="1">P3_1!$T$163:$V$163</definedName>
-    <definedName name="_xlchart.4" hidden="1">P3_1!$T$163:$V$163</definedName>
-    <definedName name="_xlchart.5" hidden="1">P3_1!$S$162</definedName>
-    <definedName name="_xlchart.6" hidden="1">P3_1!$S$163</definedName>
-    <definedName name="_xlchart.7" hidden="1">P3_1!$T$161:$V$161</definedName>
-    <definedName name="_xlchart.8" hidden="1">P3_1!$T$162:$V$162</definedName>
-    <definedName name="_xlchart.9" hidden="1">P3_1!$T$163:$V$163</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -69,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="240">
   <si>
     <t>Apr</t>
   </si>
@@ -815,11 +781,23 @@
   <si>
     <t>Hours dev/ 1 Day</t>
   </si>
+  <si>
+    <t>Urgent Project</t>
+  </si>
+  <si>
+    <t>Main Project</t>
+  </si>
+  <si>
+    <t>Total Request</t>
+  </si>
+  <si>
+    <t>Other request</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2241,40 +2219,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2295,17 +2243,47 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2314,7 +2292,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3815,7 +3793,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3956,9 +3933,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -3979,9 +3954,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4002,9 +3975,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4025,9 +3996,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4048,9 +4017,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4071,9 +4038,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0146-4EC2-A8F1-34B7CF14CAA7}"/>
                 </c:ext>
@@ -4835,7 +4800,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4843,6 +4807,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5394,7 +5359,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5402,6 +5366,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5491,7 +5456,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6037,7 +6001,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6045,6 +6008,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6094,7 +6058,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6276,7 +6239,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6435,7 +6397,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6556,7 +6517,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6654,7 +6614,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6743,7 +6703,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6822,20 +6781,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6845,15 +6791,60 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$17</c:f>
+              <c:f>P3_1!$T$172</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member1</c:v>
+                  <c:v>Total Request</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -6863,90 +6854,140 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
+              <c:f>P3_1!$S$173:$S$175</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>S</c:v>
+                  <c:v>Main Project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
+                  <c:v>Urgent Project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>D</c:v>
+                  <c:v>Other request</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
+              <c:f>P3_1!$T$173:$T$175</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
+              <c16:uniqueId val="{00000000-ECFE-475E-BD77-4A16F0CCC31C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="ja-JP"/>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6954,8 +6995,40 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7203,11 +7276,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
+              <c:f>'Ita-Kona'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member2</c:v>
+                  <c:v>Member1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7232,10 +7305,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
@@ -7244,7 +7317,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
+              <c:f>'Ita-Kona'!$K$16:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7261,35 +7334,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
+              <c:f>'Ita-Kona'!$K$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
+              <c16:uniqueId val="{00000000-8F37-4D82-BE33-2408AB86C929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -7359,11 +7432,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7400,7 +7473,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7417,25 +7490,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7515,11 +7588,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7556,7 +7629,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7573,25 +7646,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7671,11 +7744,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7712,7 +7785,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7729,25 +7802,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7827,11 +7900,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7868,7 +7941,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7885,25 +7958,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7983,6 +8056,162 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Ita-Kona'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -8086,7 +8315,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8286,7 +8515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8442,7 +8671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8592,7 +8821,253 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23561671238171444"/>
+          <c:y val="3.864734299516908E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2285229688448277"/>
+                  <c:y val="-8.3735909822866342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27578698246003369"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11264651481909513"/>
+                  <c:y val="0.1576360116601972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32181031099500379"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11531841293113118"/>
+                  <c:y val="0.19263177220665517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.32307555969940843"/>
+                      <c:h val="0.30388349514563101"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8840,253 +9315,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23561671238171444"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2285229688448277"/>
-                  <c:y val="-8.3735909822866342E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27578698246003369"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11264651481909513"/>
-                  <c:y val="0.1576360116601972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32181031099500379"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11531841293113118"/>
-                  <c:y val="0.19263177220665517"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32307555969940843"/>
-                      <c:h val="0.30388349514563101"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A3B-45E6-AE3C-FED68302EE0F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$26:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3B-45E6-AE3C-FED68302EE0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9283,7 +9512,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9524,7 +9753,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9910,7 +10139,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10104,7 +10333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10544,7 +10773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10865,7 +11094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12068,7 +12297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12552,7 +12781,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12682,143 +12911,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:v>#REF!</c:v>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="3"/>
-                    <c:pt idx="0">
-                      <c:v>0</c:v>
-                    </c:pt>
-                    <c:pt idx="1">
-                      <c:v>0</c:v>
-                    </c:pt>
-                    <c:pt idx="2">
-                      <c:v>0</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D54-4FC1-8329-3DF8C736C4A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -13176,6 +13268,143 @@
 </file>
 
 <file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>#REF!</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="3"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D54-4FC1-8329-3DF8C736C4A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13422,7 +13651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13618,7 +13847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13858,7 +14087,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14243,7 +14472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14436,7 +14665,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14875,7 +15104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15195,7 +15424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16398,7 +16627,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16882,7 +17111,206 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11483609499427869"/>
+                  <c:y val="-0.11052515540778547"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13036047320549735"/>
+                  <c:y val="0.21178639826780946"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF27-4CE7-B4F9-AC31579B5342}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17024,206 +17452,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11483609499427869"/>
-                  <c:y val="-0.11052515540778547"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13036047320549735"/>
-                  <c:y val="0.21178639826780946"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$31:$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$32:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AF27-4CE7-B4F9-AC31579B5342}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20226,6 +20455,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23786,6 +24055,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -24525,7 +25313,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -24555,7 +25349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24622,7 +25422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24689,7 +25495,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24852,7 +25664,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25015,7 +25833,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25161,6 +25985,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>924486</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>902074</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5341536B-DB73-43F6-99F5-0827CC0825A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27045,33 +27905,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
-  <autoFilter ref="B151:G162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
+  <autoFilter ref="B151:G162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" name="Develop" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" name="Column1" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -27375,14 +28235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U123" sqref="U123"/>
+    <sheetView tabSelected="1" topLeftCell="F154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28951,6 +29811,35 @@
       </c>
       <c r="J166" s="49">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="172" spans="9:22">
+      <c r="T172" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="9:22">
+      <c r="S173" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="T173" s="49">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="174" spans="9:22">
+      <c r="S174" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="T174" s="49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="175" spans="9:22">
+      <c r="S175" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="T175" s="49">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -29110,11 +29999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -29989,75 +30878,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C11:E11</xm:f>
-              <xm:sqref>F11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>G5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>G6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>G7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>G8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>G9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>G10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000005000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30068,32 +30889,48 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C9:E9</xm:f>
-              <xm:sqref>F9</xm:sqref>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!C10:E10</xm:f>
-              <xm:sqref>F10</xm:sqref>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000004000000}">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30145,7 +30982,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000003000000}">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30156,44 +30993,96 @@
           <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000000000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30204,14 +31093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31506,14 +32395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B54"/>
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32590,7 +33479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32668,7 +33557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -32692,29 +33581,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
@@ -32756,7 +33645,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="210" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -32806,7 +33695,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -32836,7 +33725,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="212" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -32888,7 +33777,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
@@ -32921,29 +33810,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
     </row>
     <row r="9" spans="1:27" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="88" t="s">
         <v>0</v>
       </c>
@@ -32997,10 +33886,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="98.25">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60" t="s">
         <v>89</v>
       </c>
@@ -33041,10 +33930,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="60">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="60" t="s">
         <v>89</v>
       </c>
@@ -33068,7 +33957,7 @@
       <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:27" ht="26.25">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="205" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -33114,7 +34003,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.25">
-      <c r="A13" s="206"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -33162,138 +34051,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" hidden="1" thickBot="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:27" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="197"/>
+      <c r="C17" s="198">
         <f>O13</f>
         <v>0.4</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="197"/>
+      <c r="C18" s="199">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="201"/>
+      <c r="C19" s="202">
         <f>C17+C18</f>
         <v>16.7</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -33302,7 +34191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -33323,29 +34212,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="142" t="s">
         <v>0</v>
       </c>
@@ -33387,7 +34276,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="210" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -33437,7 +34326,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A4" s="200"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
@@ -33463,7 +34352,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="216" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="55" t="s">
@@ -33506,7 +34395,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="215"/>
+      <c r="A6" s="217"/>
       <c r="B6" s="145" t="s">
         <v>86</v>
       </c>
@@ -33531,29 +34420,29 @@
       <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="213" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="142" t="s">
         <v>0</v>
       </c>
@@ -33595,10 +34484,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.5">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="204"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -33614,10 +34503,10 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -33633,7 +34522,7 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="26.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="214" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -33682,7 +34571,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1">
-      <c r="A13" s="217"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="145" t="s">
         <v>86</v>
       </c>
@@ -33721,138 +34610,138 @@
       <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="45" hidden="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:22" ht="42.75" hidden="1" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="51.75" hidden="1" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="208">
+      <c r="B17" s="197"/>
+      <c r="C17" s="198">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="44.25" hidden="1">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="209">
+      <c r="B18" s="197"/>
+      <c r="C18" s="199">
         <v>16.3</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
       <c r="O18" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45" hidden="1" thickBot="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212">
+      <c r="B19" s="201"/>
+      <c r="C19" s="202">
         <f>C17+C18</f>
         <v>16.3</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="86" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
@@ -33860,14 +34749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
@@ -34749,7 +35638,7 @@
       <c r="J37" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U4">
+  <autoFilter ref="A3:U4" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState ref="A4:U4">
       <sortCondition ref="G3:G4"/>
     </sortState>
@@ -34823,7 +35712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Itakona_FY2021.xlsx
+++ b/Itakona_FY2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\hong GA\tailieu_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38381F99-D6F5-4037-9008-314740E1C004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="P3_1" sheetId="14" r:id="rId1"/>
@@ -28,6 +27,12 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Summary!$A$3:$U$4</definedName>
+    <definedName name="_xlchart.0" hidden="1">P3_1!$S$173:$S$175</definedName>
+    <definedName name="_xlchart.1" hidden="1">P3_1!$T$172</definedName>
+    <definedName name="_xlchart.2" hidden="1">P3_1!$T$173:$T$175</definedName>
+    <definedName name="_xlchart.3" hidden="1">P3_1!$S$173:$S$175</definedName>
+    <definedName name="_xlchart.4" hidden="1">P3_1!$T$172</definedName>
+    <definedName name="_xlchart.5" hidden="1">P3_1!$T$173:$T$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">P3_1!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">P3_draft!$A$1:$I$60</definedName>
@@ -35,7 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Summary2!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Summary2 (2)'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -797,7 +802,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2219,10 +2224,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2243,47 +2278,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2292,7 +2297,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -4800,6 +4805,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4807,7 +4813,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5359,6 +5364,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5366,7 +5372,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6001,6 +6006,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6008,7 +6014,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6058,6 +6063,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6239,6 +6245,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6397,6 +6404,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6517,6 +6525,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6703,6 +6712,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6814,6 +6824,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4529-4F81-8481-6C9D3A53FD87}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6829,6 +6844,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4529-4F81-8481-6C9D3A53FD87}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6844,6 +6864,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4529-4F81-8481-6C9D3A53FD87}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6875,12 +6900,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -6898,7 +6923,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6925,10 +6952,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.6</c:v>
@@ -6943,7 +6970,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -6964,6 +6991,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6995,6 +7023,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7002,7 +7031,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7240,6 +7268,127 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{B4705FC9-F821-4566-A75F-F150C669BE56}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.1</cx:f>
+              <cx:v>Total Request</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels pos="outEnd">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7254,6 +7403,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7312,7 +7462,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7371,162 +7523,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7566,6 +7563,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7588,11 +7586,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$21</c:f>
+              <c:f>'Ita-Kona'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member3</c:v>
+                  <c:v>Member2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7624,12 +7622,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
+              <c:f>'Ita-Kona'!$K$18:$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7646,25 +7646,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
+              <c:f>'Ita-Kona'!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
+              <c16:uniqueId val="{00000000-517E-47AB-8D80-DAEC33376713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7683,6 +7683,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7722,6 +7723,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7744,11 +7746,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$23</c:f>
+              <c:f>'Ita-Kona'!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member4</c:v>
+                  <c:v>Member3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7780,12 +7782,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
+              <c:f>'Ita-Kona'!$K$20:$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7802,25 +7806,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
+              <c:f>'Ita-Kona'!$K$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
+              <c16:uniqueId val="{00000000-ED85-42C7-BE18-CD71B36EC83E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7839,6 +7843,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7878,6 +7883,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7900,11 +7906,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$25</c:f>
+              <c:f>'Ita-Kona'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member5</c:v>
+                  <c:v>Member4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7936,12 +7942,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
+              <c:f>'Ita-Kona'!$K$22:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7958,25 +7966,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
+              <c:f>'Ita-Kona'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
+              <c16:uniqueId val="{00000000-2D52-4051-874A-C6DB8933A00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7995,6 +8003,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8034,6 +8043,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8056,11 +8066,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$27</c:f>
+              <c:f>'Ita-Kona'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Member6</c:v>
+                  <c:v>Member5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8092,12 +8102,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
+              <c:f>'Ita-Kona'!$K$24:$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8114,25 +8126,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
+              <c:f>'Ita-Kona'!$K$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
+              <c16:uniqueId val="{00000000-70CE-4F7A-B1E8-1A4D7C510898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8151,6 +8163,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8190,6 +8203,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8212,11 +8226,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$35</c:f>
+              <c:f>'Ita-Kona'!$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ISG</c:v>
+                  <c:v>Member6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8239,70 +8253,89 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$34:$M$34</c:f>
+              <c:f>'Ita-Kona'!$K$26:$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Normal Support</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trouble Support</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Develop</c:v>
+                  <c:v>D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$35:$M$35</c:f>
+              <c:f>'Ita-Kona'!$K$27:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9479-4993-B4DA-938C32FD6A23}"/>
+              <c16:uniqueId val="{00000000-23DF-41F3-A843-CF80BE9BD553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8352,6 +8385,147 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ita-Kona'!$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$34:$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Normal Support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trouble Support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Develop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9479-4993-B4DA-938C32FD6A23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Ita-Kona'!$J$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -8378,7 +8552,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -8400,7 +8576,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4F2B-4C3A-B1FE-03B2477B167B}"/>
                 </c:ext>
@@ -8432,7 +8610,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8491,162 +8671,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$J$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ita-Kona'!$K$31:$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ita-Kona'!$K$32:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC13-4968-8490-A87D6AC491AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8686,6 +8711,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8700,17 +8726,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30521997109911825"/>
-          <c:y val="0.23454498058857123"/>
-          <c:w val="0.37158229378631041"/>
-          <c:h val="0.62681622719828711"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -8718,11 +8734,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ita-Kona'!$J$37</c:f>
+              <c:f>'Ita-Kona'!$J$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ISG Activity</c:v>
+                  <c:v>Member8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8745,70 +8761,89 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ita-Kona'!$K$36:$M$36</c:f>
+              <c:f>'Ita-Kona'!$K$31:$M$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Normal Support (S)</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trouble Support (T)</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Develop (D)</c:v>
+                  <c:v>D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ita-Kona'!$K$37:$M$37</c:f>
+              <c:f>'Ita-Kona'!$K$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1106-4501-93F3-BF20634FDE62}"/>
+              <c16:uniqueId val="{00000000-AC13-4968-8490-A87D6AC491AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9068,6 +9103,159 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30521997109911825"/>
+          <c:y val="0.23454498058857123"/>
+          <c:w val="0.37158229378631041"/>
+          <c:h val="0.62681622719828711"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISG Activity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ita-Kona'!$K$36:$M$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Normal Support (S)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trouble Support (T)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Develop (D)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ita-Kona'!$K$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1106-4501-93F3-BF20634FDE62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9315,7 +9503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9512,7 +9700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9753,7 +9941,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10139,7 +10327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10333,7 +10521,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10773,7 +10961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11094,7 +11282,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12297,7 +12485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12781,149 +12969,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20190544282698289"/>
-          <c:y val="0.24330927842188704"/>
-          <c:w val="0.57207151392407951"/>
-          <c:h val="0.6417149548910499"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:v>#REF!</c:v>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="3"/>
-                    <c:pt idx="0">
-                      <c:v>0</c:v>
-                    </c:pt>
-                    <c:pt idx="1">
-                      <c:v>0</c:v>
-                    </c:pt>
-                    <c:pt idx="2">
-                      <c:v>0</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFA6-419F-B6DF-1915169226C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -13296,6 +13341,149 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20190544282698289"/>
+          <c:y val="0.24330927842188704"/>
+          <c:w val="0.57207151392407951"/>
+          <c:h val="0.6417149548910499"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>#REF!</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="3"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFA6-419F-B6DF-1915169226C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
@@ -13404,7 +13592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13651,7 +13839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13847,7 +14035,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14087,7 +14275,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14472,7 +14660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14665,7 +14853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15104,7 +15292,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15424,7 +15612,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16627,7 +16815,206 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Member8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11483609499427869"/>
+                  <c:y val="-0.11052515540778547"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13036047320549735"/>
+                  <c:y val="0.21178639826780946"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ita-Kona_Nov'!$K$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF27-4CE7-B4F9-AC31579B5342}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17111,206 +17498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$J$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Member8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11483609499427869"/>
-                  <c:y val="-0.11052515540778547"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-AF27-4CE7-B4F9-AC31579B5342}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13036047320549735"/>
-                  <c:y val="0.21178639826780946"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-AF27-4CE7-B4F9-AC31579B5342}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="ja-JP" sz="1200" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$31:$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Ita-Kona_Nov'!$K$32:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AF27-4CE7-B4F9-AC31579B5342}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17452,7 +17640,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20495,6 +20683,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -24574,6 +24802,465 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -26021,6 +26708,74 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="29" name="Chart 28"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27905,33 +28660,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
-  <autoFilter ref="B151:G162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B151:G162" totalsRowShown="0">
+  <autoFilter ref="B151:G162"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="J4:P14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table256" displayName="Table256" ref="J4:P14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="J4:P14"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Member name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Normal Support" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Trouble Support" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Develop" dataDxfId="3">
+    <tableColumn id="1" name="Member name" dataDxfId="6"/>
+    <tableColumn id="2" name="Normal Support" dataDxfId="5"/>
+    <tableColumn id="3" name="Trouble Support" dataDxfId="4"/>
+    <tableColumn id="4" name="Develop" dataDxfId="3">
       <calculatedColumnFormula>100%-Table256[[#This Row],[Normal Support]]-Table256[[#This Row],[Trouble Support]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Line" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Bar" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column1" dataDxfId="0">
+    <tableColumn id="5" name="Line" dataDxfId="2"/>
+    <tableColumn id="6" name="Bar" dataDxfId="1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table256[[#This Row],[Normal Support]:[Develop]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -28235,14 +28990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="J169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O186" sqref="O186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29823,7 +30578,7 @@
         <v>237</v>
       </c>
       <c r="T173" s="49">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="174" spans="9:22">
@@ -29831,7 +30586,7 @@
         <v>236</v>
       </c>
       <c r="T174" s="49">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="175" spans="9:22">
@@ -29999,7 +30754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -30878,7 +31633,163 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
+          <x14:colorSeries theme="8"/>
+          <x14:colorNegative theme="9"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
+          <x14:colorLast theme="8" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
+          <x14:colorLow theme="8" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!C10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Ita-Kona'!K14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1">
           <x14:colorSeries theme="8"/>
           <x14:colorNegative theme="9"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30930,162 +31841,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000004000000}">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K5:M5</xm:f>
-              <xm:sqref>O5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K6:M6</xm:f>
-              <xm:sqref>O6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K7:M7</xm:f>
-              <xm:sqref>O7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K8:M8</xm:f>
-              <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K9:M9</xm:f>
-              <xm:sqref>O9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K10:M10</xm:f>
-              <xm:sqref>O10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K11:M11</xm:f>
-              <xm:sqref>O11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K12:M12</xm:f>
-              <xm:sqref>O12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K13:M13</xm:f>
-              <xm:sqref>O13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!K14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" first="1" last="1" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries theme="8"/>
-          <x14:colorNegative theme="9"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
-          <x14:colorLast theme="8" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
-          <x14:colorLow theme="8" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C5:E5</xm:f>
-              <xm:sqref>F5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C6:E6</xm:f>
-              <xm:sqref>F6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C7:E7</xm:f>
-              <xm:sqref>F7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Ita-Kona'!C8:E8</xm:f>
-              <xm:sqref>F8</xm:sqref>
-     